--- a/excel_saver/data.xlsx
+++ b/excel_saver/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="813">
   <si>
     <t>City</t>
   </si>
@@ -126,9 +126,6 @@
     <t>overcast clouds</t>
   </si>
   <si>
-    <t>light rain</t>
-  </si>
-  <si>
     <t>clear sky</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>broken clouds</t>
-  </si>
-  <si>
-    <t>few clouds</t>
   </si>
   <si>
     <t>source</t>
@@ -961,1516 +955,1531 @@
     <t>male</t>
   </si>
   <si>
-    <t>{'title': 'Miss', 'first': 'Nigoslava', 'last': 'Alchevskiy'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Ella', 'last': 'Petersen'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Izzie', 'last': 'Miles'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Aadi', 'last': 'Shetty'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Advaith', 'last': 'Jain'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Teresa', 'last': 'Fick'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Robin', 'last': 'Morrison'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Adrijana', 'last': 'Urošević'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Wayne', 'last': 'May'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Tammy', 'last': 'Lawson'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Adina', 'last': 'Van den Anker'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'میلاد', 'last': 'حسینی'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Bharathy', 'last': 'Adiga'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Montserrat', 'last': 'Arias'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Layla', 'last': 'Jackson'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Ella', 'last': 'Brar'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Klara', 'last': 'Runde'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Max', 'last': 'Patel'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Dragica', 'last': 'Blagojević'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Ilona', 'last': 'Ketola'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Aaliyah', 'last': 'Hughes'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Logan', 'last': 'Green'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Miss', 'first': 'Oya', 'last': 'Sepetçi'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Deanna', 'last': 'Bradley'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Alexis', 'last': 'Turner'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Monsieur', 'first': 'Marc', 'last': 'Rolland'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Carmelo', 'last': 'Castillo'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'رضا', 'last': 'پارسا'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Meike', 'last': 'Hessel'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Dharun', 'last': 'Nand'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Monsieur', 'first': 'Iwan', 'last': 'Olivier'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Peter', 'last': 'Perry'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Leevi', 'last': 'Jarvi'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Jayden', 'last': 'Turner'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Eemil', 'last': 'Palo'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Gerónimo', 'last': 'Villareal'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Roope', 'last': 'Murto'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Jasper', 'last': 'Seemann'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Matias', 'last': 'Hamalainen'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Veeti', 'last': 'Neva'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Eetu', 'last': 'Pietila'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Milutin', 'last': 'Ognjanović'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Elias', 'last': 'Møller'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Joshua', 'last': 'Anderson'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Nathan', 'last': 'Wagner'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'Bradley', 'last': 'Gutierrez'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Ms', 'first': 'Liona', 'last': 'Drijfhout'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mr', 'first': 'William', 'last': 'Jørgensen'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Rose', 'last': 'Hernandez'}</t>
-  </si>
-  <si>
-    <t>{'title': 'Mrs', 'first': 'Laura', 'last': 'Regalado'}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 663, 'name': '9-ta liniya'}, 'city': 'Brodi', 'state': 'Zhitomirska', 'country': 'Ukraine', 'postcode': 39219, 'coordinates': {'latitude': '74.6224', 'longitude': '76.0910'}, 'timezone': {'offset': '-7:00', 'description': 'Mountain Time (US &amp; Canada)'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9682, 'name': 'Svanevej'}, 'city': 'Amager', 'state': 'Sjælland', 'country': 'Denmark', 'postcode': 38014, 'coordinates': {'latitude': '54.7638', 'longitude': '168.3918'}, 'timezone': {'offset': '+1:00', 'description': 'Brussels, Copenhagen, Madrid, Paris'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9224, 'name': 'Victoria Street'}, 'city': 'Worcester', 'state': 'County Tyrone', 'country': 'United Kingdom', 'postcode': 'Y16 0LX', 'coordinates': {'latitude': '-0.5099', 'longitude': '-63.2440'}, 'timezone': {'offset': '-10:00', 'description': 'Hawaii'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 5995, 'name': 'Camac St'}, 'city': 'Narasaraopet', 'state': 'Uttarakhand', 'country': 'India', 'postcode': 65124, 'coordinates': {'latitude': '77.1558', 'longitude': '-32.0289'}, 'timezone': {'offset': '+6:00', 'description': 'Almaty, Dhaka, Colombo'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1472, 'name': 'MG Rd Bangalore'}, 'city': 'Ajmer', 'state': 'Assam', 'country': 'India', 'postcode': 38390, 'coordinates': {'latitude': '-68.5002', 'longitude': '33.3918'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1818, 'name': 'Feldstraße'}, 'city': 'Kastellaun', 'state': 'Bayern', 'country': 'Germany', 'postcode': 50243, 'coordinates': {'latitude': '-49.1882', 'longitude': '-143.2701'}, 'timezone': {'offset': '+4:00', 'description': 'Abu Dhabi, Muscat, Baku, Tbilisi'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 300, 'name': 'Central St'}, 'city': 'Melbourne', 'state': 'Western Australia', 'country': 'Australia', 'postcode': 3056, 'coordinates': {'latitude': '-29.6968', 'longitude': '-18.2928'}, 'timezone': {'offset': '-5:00', 'description': 'Eastern Time (US &amp; Canada), Bogota, Lima'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9756, 'name': 'Leposavićka'}, 'city': 'Vranje', 'state': 'Toplica', 'country': 'Serbia', 'postcode': 72873, 'coordinates': {'latitude': '34.3030', 'longitude': '78.6616'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8280, 'name': 'George Street'}, 'city': 'Rush', 'state': 'Cavan', 'country': 'Ireland', 'postcode': 36376, 'coordinates': {'latitude': '-8.2595', 'longitude': '4.9457'}, 'timezone': {'offset': '+11:00', 'description': 'Magadan, Solomon Islands, New Caledonia'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 606, 'name': 'Main Street'}, 'city': 'Bradford', 'state': 'County Londonderry', 'country': 'United Kingdom', 'postcode': 'B2 2HB', 'coordinates': {'latitude': '-18.5787', 'longitude': '146.0430'}, 'timezone': {'offset': '-12:00', 'description': 'Eniwetok, Kwajalein'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8288, 'name': 'Aarschotlaan'}, 'city': 'Stuifzand', 'state': 'Flevoland', 'country': 'Netherlands', 'postcode': '9139 AY', 'coordinates': {'latitude': '-29.5735', 'longitude': '123.7343'}, 'timezone': {'offset': '-3:00', 'description': 'Brazil, Buenos Aires, Georgetown'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1849, 'name': 'بلوار کشاورز'}, 'city': 'سیرجان', 'state': 'قزوین', 'country': 'Iran', 'postcode': 42978, 'coordinates': {'latitude': '50.7113', 'longitude': '-125.3258'}, 'timezone': {'offset': '+10:00', 'description': 'Eastern Australia, Guam, Vladivostok'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8039, 'name': 'China Bazaar Rd'}, 'city': 'Karnal', 'state': 'Tripura', 'country': 'India', 'postcode': 65406, 'coordinates': {'latitude': '75.4295', 'longitude': '-109.5234'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8132, 'name': 'Calle de La Luna'}, 'city': 'Pamplona', 'state': 'La Rioja', 'country': 'Spain', 'postcode': 21557, 'coordinates': {'latitude': '-34.8914', 'longitude': '11.3222'}, 'timezone': {'offset': '+5:45', 'description': 'Kathmandu'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 3522, 'name': 'Dane St'}, 'city': 'Van Alstyne', 'state': 'North Dakota', 'country': 'United States', 'postcode': 85980, 'coordinates': {'latitude': '15.6387', 'longitude': '-69.1102'}, 'timezone': {'offset': '+2:00', 'description': 'Kaliningrad, South Africa'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 7996, 'name': '20th Ave'}, 'city': 'Charlottetown', 'state': 'Northwest Territories', 'country': 'Canada', 'postcode': 'V8O 8J8', 'coordinates': {'latitude': '69.6844', 'longitude': '-176.9101'}, 'timezone': {'offset': '0:00', 'description': 'Western Europe Time, London, Lisbon, Casablanca'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6053, 'name': 'Lunnestien'}, 'city': 'Sommarøy', 'state': 'Bergen', 'country': 'Norway', 'postcode': '6694', 'coordinates': {'latitude': '-38.3279', 'longitude': '82.7252'}, 'timezone': {'offset': '-9:00', 'description': 'Alaska'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9518, 'name': 'Church Street'}, 'city': 'Wellington', 'state': 'Gisborne', 'country': 'New Zealand', 'postcode': 91325, 'coordinates': {'latitude': '89.1361', 'longitude': '126.5669'}, 'timezone': {'offset': '+7:00', 'description': 'Bangkok, Hanoi, Jakarta'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9849, 'name': 'Simićev Puteljak'}, 'city': 'Svrljig', 'state': 'Prizren', 'country': 'Serbia', 'postcode': 26908, 'coordinates': {'latitude': '8.9592', 'longitude': '159.1842'}, 'timezone': {'offset': '+9:30', 'description': 'Adelaide, Darwin'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6603, 'name': 'Rautatienkatu'}, 'city': 'Nivala', 'state': 'South Karelia', 'country': 'Finland', 'postcode': 68554, 'coordinates': {'latitude': '-44.1260', 'longitude': '8.2435'}, 'timezone': {'offset': '-1:00', 'description': 'Azores, Cape Verde Islands'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6399, 'name': 'Guyton Street'}, 'city': 'Timaru', 'state': 'Nelson', 'country': 'New Zealand', 'postcode': 62097, 'coordinates': {'latitude': '8.4969', 'longitude': '-30.2232'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 3941, 'name': 'George Street'}, 'city': 'Gisborne', 'state': 'Northland', 'country': 'New Zealand', 'postcode': 32821, 'coordinates': {'latitude': '-32.4415', 'longitude': '-146.2838'}, 'timezone': {'offset': '+11:00', 'description': 'Magadan, Solomon Islands, New Caledonia'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1420, 'name': 'Abanoz Sk'}, 'city': 'Artvin', 'state': 'Tunceli', 'country': 'Turkey', 'postcode': 74702, 'coordinates': {'latitude': '88.3973', 'longitude': '107.8120'}, 'timezone': {'offset': '+5:00', 'description': 'Ekaterinburg, Islamabad, Karachi, Tashkent'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 4127, 'name': 'Pockrus Page Rd'}, 'city': 'San Mateo', 'state': 'Maryland', 'country': 'United States', 'postcode': 40951, 'coordinates': {'latitude': '-65.5706', 'longitude': '93.7478'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 2779, 'name': 'Waipuna Road'}, 'city': 'Christchurch', 'state': 'Bay of Plenty', 'country': 'New Zealand', 'postcode': 65406, 'coordinates': {'latitude': '-87.0091', 'longitude': '110.4527'}, 'timezone': {'offset': '+9:30', 'description': 'Adelaide, Darwin'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 3668, 'name': 'Rue du Moulin'}, 'city': 'Gerzensee', 'state': 'Ticino', 'country': 'Switzerland', 'postcode': 4091, 'coordinates': {'latitude': '-20.9475', 'longitude': '-75.2088'}, 'timezone': {'offset': '+7:00', 'description': 'Bangkok, Hanoi, Jakarta'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1143, 'name': 'Calle de La Luna'}, 'city': 'Mérida', 'state': 'Aragón', 'country': 'Spain', 'postcode': 52407, 'coordinates': {'latitude': '-59.3868', 'longitude': '26.6651'}, 'timezone': {'offset': '+7:00', 'description': 'Bangkok, Hanoi, Jakarta'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1037, 'name': 'قدس'}, 'city': 'اصفهان', 'state': 'لرستان', 'country': 'Iran', 'postcode': 48880, 'coordinates': {'latitude': '83.7649', 'longitude': '91.2111'}, 'timezone': {'offset': '-4:00', 'description': 'Atlantic Time (Canada), Caracas, La Paz'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9656, 'name': 'Rosenweg'}, 'city': 'Oldenburg (Oldenburg)', 'state': 'Baden-Württemberg', 'country': 'Germany', 'postcode': 33884, 'coordinates': {'latitude': '25.1702', 'longitude': '158.0035'}, 'timezone': {'offset': '-10:00', 'description': 'Hawaii'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 5892, 'name': 'Sao Tome Old Quarter'}, 'city': 'Jamnagar', 'state': 'Daman and Diu', 'country': 'India', 'postcode': 52549, 'coordinates': {'latitude': '-83.0497', 'longitude': '1.3513'}, 'timezone': {'offset': '-3:30', 'description': 'Newfoundland'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 7554, 'name': "Place de L'Abbé-Basset"}, 'city': 'Valeyres-Sous-Montagny', 'state': 'Obwalden', 'country': 'Switzerland', 'postcode': 1046, 'coordinates': {'latitude': '3.6230', 'longitude': '59.4070'}, 'timezone': {'offset': '+3:30', 'description': 'Tehran'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 3904, 'name': 'Edwards Rd'}, 'city': 'Peoria', 'state': 'Connecticut', 'country': 'United States', 'postcode': 44354, 'coordinates': {'latitude': '-16.0841', 'longitude': '-68.2215'}, 'timezone': {'offset': '-6:00', 'description': 'Central Time (US &amp; Canada), Mexico City'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 9281, 'name': 'Reijolankatu'}, 'city': 'Kangasala', 'state': 'Tavastia Proper', 'country': 'Finland', 'postcode': 57663, 'coordinates': {'latitude': '-13.5756', 'longitude': '-82.6209'}, 'timezone': {'offset': '+5:30', 'description': 'Bombay, Calcutta, Madras, New Delhi'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 4008, 'name': 'Elles Road'}, 'city': 'Auckland', 'state': "Hawke'S Bay", 'country': 'New Zealand', 'postcode': 25229, 'coordinates': {'latitude': '20.1425', 'longitude': '-71.3849'}, 'timezone': {'offset': '+6:00', 'description': 'Almaty, Dhaka, Colombo'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6991, 'name': 'Tahmelantie'}, 'city': 'Honkajoki', 'state': 'Päijät-Häme', 'country': 'Finland', 'postcode': 46025, 'coordinates': {'latitude': '2.2457', 'longitude': '-128.9012'}, 'timezone': {'offset': '-9:00', 'description': 'Alaska'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6984, 'name': 'Prolongación Tlaxcala'}, 'city': 'Cocula', 'state': 'Michoacan', 'country': 'Mexico', 'postcode': 26372, 'coordinates': {'latitude': '42.6286', 'longitude': '44.3380'}, 'timezone': {'offset': '-5:00', 'description': 'Eastern Time (US &amp; Canada), Bogota, Lima'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8149, 'name': 'Hämeenkatu'}, 'city': 'Raisio', 'state': 'Northern Ostrobothnia', 'country': 'Finland', 'postcode': 12435, 'coordinates': {'latitude': '-9.9882', 'longitude': '-141.8116'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1406, 'name': 'Drosselweg'}, 'city': 'Ostritz', 'state': 'Thüringen', 'country': 'Germany', 'postcode': 45194, 'coordinates': {'latitude': '10.3341', 'longitude': '-171.6503'}, 'timezone': {'offset': '-9:00', 'description': 'Alaska'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 5132, 'name': 'Tehtaankatu'}, 'city': 'Salo', 'state': 'Kainuu', 'country': 'Finland', 'postcode': 33983, 'coordinates': {'latitude': '-66.0450', 'longitude': '-114.2692'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6119, 'name': 'Bulevardi'}, 'city': 'Pyhäntä', 'state': 'North Karelia', 'country': 'Finland', 'postcode': 75668, 'coordinates': {'latitude': '73.9190', 'longitude': '174.3320'}, 'timezone': {'offset': '-1:00', 'description': 'Azores, Cape Verde Islands'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 693, 'name': 'Fredrikinkatu'}, 'city': 'Suomussalmi', 'state': 'Kainuu', 'country': 'Finland', 'postcode': 30529, 'coordinates': {'latitude': '-66.3865', 'longitude': '95.4428'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 7408, 'name': 'Dragoljuba Ivkova'}, 'city': 'Vranje', 'state': 'Rasina', 'country': 'Serbia', 'postcode': 74801, 'coordinates': {'latitude': '-9.5506', 'longitude': '95.2014'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 7028, 'name': 'Magnoliavej'}, 'city': 'København N', 'state': 'Nordjylland', 'country': 'Denmark', 'postcode': 92984, 'coordinates': {'latitude': '56.8006', 'longitude': '78.1749'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 2584, 'name': 'Bealey Avenue'}, 'city': 'Hastings', 'state': 'West Coast', 'country': 'New Zealand', 'postcode': 44810, 'coordinates': {'latitude': '87.8219', 'longitude': '-38.1187'}, 'timezone': {'offset': '-9:00', 'description': 'Alaska'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 7976, 'name': 'Bruce St'}, 'city': 'Surprise', 'state': 'North Carolina', 'country': 'United States', 'postcode': 95255, 'coordinates': {'latitude': '79.3649', 'longitude': '5.4751'}, 'timezone': {'offset': '+3:30', 'description': 'Tehran'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 5986, 'name': 'Adams St'}, 'city': 'Bunbury', 'state': 'Australian Capital Territory', 'country': 'Australia', 'postcode': 5296, 'coordinates': {'latitude': '9.8346', 'longitude': '20.8670'}, 'timezone': {'offset': '+6:00', 'description': 'Almaty, Dhaka, Colombo'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 6913, 'name': 'De Halderberg'}, 'city': 'Horssen', 'state': 'Groningen', 'country': 'Netherlands', 'postcode': '8902 OI', 'coordinates': {'latitude': '-16.5840', 'longitude': '-68.0532'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 8469, 'name': 'Østergårdsvej'}, 'city': 'Skaerbaek', 'state': 'Sjælland', 'country': 'Denmark', 'postcode': 15102, 'coordinates': {'latitude': '-33.6583', 'longitude': '-135.0775'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 4129, 'name': 'Spring St'}, 'city': 'El Monte', 'state': 'Texas', 'country': 'United States', 'postcode': 25857, 'coordinates': {'latitude': '3.9432', 'longitude': '-149.9544'}, 'timezone': {'offset': '+6:00', 'description': 'Almaty, Dhaka, Colombo'}}</t>
-  </si>
-  <si>
-    <t>{'street': {'number': 1038, 'name': 'Continuación Norte Arce'}, 'city': 'San Marcos (Mp.Zacoalco de Torres', 'state': 'Zacatecas', 'country': 'Mexico', 'postcode': 35680, 'coordinates': {'latitude': '88.8481', 'longitude': '-45.6346'}, 'timezone': {'offset': '-1:00', 'description': 'Azores, Cape Verde Islands'}}</t>
-  </si>
-  <si>
-    <t>nigoslava.alchevskiy@example.com</t>
-  </si>
-  <si>
-    <t>ella.petersen@example.com</t>
-  </si>
-  <si>
-    <t>izzie.miles@example.com</t>
-  </si>
-  <si>
-    <t>aadi.shetty@example.com</t>
-  </si>
-  <si>
-    <t>advaith.jain@example.com</t>
-  </si>
-  <si>
-    <t>teresa.fick@example.com</t>
-  </si>
-  <si>
-    <t>robin.morrison@example.com</t>
-  </si>
-  <si>
-    <t>adrijana.urosevic@example.com</t>
-  </si>
-  <si>
-    <t>wayne.may@example.com</t>
-  </si>
-  <si>
-    <t>tammy.lawson@example.com</t>
-  </si>
-  <si>
-    <t>adina.vandenanker@example.com</t>
-  </si>
-  <si>
-    <t>myld.hsyny@example.com</t>
-  </si>
-  <si>
-    <t>bharathy.adiga@example.com</t>
-  </si>
-  <si>
-    <t>montserrat.arias@example.com</t>
-  </si>
-  <si>
-    <t>layla.jackson@example.com</t>
-  </si>
-  <si>
-    <t>ella.brar@example.com</t>
-  </si>
-  <si>
-    <t>klara.runde@example.com</t>
-  </si>
-  <si>
-    <t>max.patel@example.com</t>
-  </si>
-  <si>
-    <t>dragica.blagojevic@example.com</t>
-  </si>
-  <si>
-    <t>ilona.ketola@example.com</t>
-  </si>
-  <si>
-    <t>aaliyah.hughes@example.com</t>
-  </si>
-  <si>
-    <t>logan.green@example.com</t>
-  </si>
-  <si>
-    <t>oya.sepetci@example.com</t>
-  </si>
-  <si>
-    <t>deanna.bradley@example.com</t>
-  </si>
-  <si>
-    <t>alexis.turner@example.com</t>
-  </si>
-  <si>
-    <t>marc.rolland@example.com</t>
-  </si>
-  <si>
-    <t>carmelo.castillo@example.com</t>
-  </si>
-  <si>
-    <t>rd.prs@example.com</t>
-  </si>
-  <si>
-    <t>meike.hessel@example.com</t>
-  </si>
-  <si>
-    <t>dharun.nand@example.com</t>
-  </si>
-  <si>
-    <t>iwan.olivier@example.com</t>
-  </si>
-  <si>
-    <t>peter.perry@example.com</t>
-  </si>
-  <si>
-    <t>leevi.jarvi@example.com</t>
-  </si>
-  <si>
-    <t>jayden.turner@example.com</t>
-  </si>
-  <si>
-    <t>eemil.palo@example.com</t>
-  </si>
-  <si>
-    <t>geronimo.villareal@example.com</t>
-  </si>
-  <si>
-    <t>roope.murto@example.com</t>
-  </si>
-  <si>
-    <t>jasper.seemann@example.com</t>
-  </si>
-  <si>
-    <t>matias.hamalainen@example.com</t>
-  </si>
-  <si>
-    <t>veeti.neva@example.com</t>
-  </si>
-  <si>
-    <t>eetu.pietila@example.com</t>
-  </si>
-  <si>
-    <t>milutin.ognjanovic@example.com</t>
-  </si>
-  <si>
-    <t>elias.moller@example.com</t>
-  </si>
-  <si>
-    <t>joshua.anderson@example.com</t>
-  </si>
-  <si>
-    <t>nathan.wagner@example.com</t>
-  </si>
-  <si>
-    <t>bradley.gutierrez@example.com</t>
-  </si>
-  <si>
-    <t>liona.drijfhout@example.com</t>
-  </si>
-  <si>
-    <t>william.jorgensen@example.com</t>
-  </si>
-  <si>
-    <t>rose.hernandez@example.com</t>
-  </si>
-  <si>
-    <t>laura.regalado@example.com</t>
-  </si>
-  <si>
-    <t>{'uuid': '90221813-5c4d-4102-8f66-d82c7f25b54d', 'username': 'greenswan561', 'password': 'grand', 'salt': 'UpYfajs0', 'md5': 'd86f5c6176cec641723842f926956725', 'sha1': 'f62ddfa0840935011c99b0d92b61202b2a15fe91', 'sha256': '19093b5f0a1845b96bf36511d5e503e721b9f77c3270e058b02fa1caad341090'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'bdbe7454-83c5-47fc-9b49-b299dfbf4f7c', 'username': 'crazyzebra494', 'password': 'waldo1', 'salt': 'JRjLM10R', 'md5': '7b38beecfa00dde11e576f561919aced', 'sha1': '66662575330e1c4eb44371cbc8ff3931b2c02108', 'sha256': '2022133567037f415a5dd9a9a78df7c2a9100bb4f72364b35cb57280ddf75bac'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '18a12d9a-fa1d-4bd6-901d-07e6901eef33', 'username': 'redmouse166', 'password': 'excess', 'salt': '6zfqlF4X', 'md5': 'ff659282f1fe96013825a867885ca261', 'sha1': '8b0cea96c844eefb9d2bd05d4b62b412c600bf4b', 'sha256': '75e3d4ec90648a4c65c150acd9179aaa77690db397f386ebcbd4bbabb3639834'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '1428ec5a-a162-4f71-8ed5-0483dc5ba1ad', 'username': 'bluebutterfly806', 'password': 'toast', 'salt': '5i3Detiy', 'md5': '5e4f257eff73adc5a61b625c4fe77b54', 'sha1': '152c27e28e807fba3f4288c4aa26efb4a544ce77', 'sha256': 'b412e7634c098700fae4a2cbcc42140e57f4a237e6a3ae261877a8b34c1e9dd6'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'b1a22d66-e69c-4f8f-a62f-8fbbc96847e9', 'username': 'ticklishrabbit747', 'password': '090909', 'salt': 'uiWRfwXR', 'md5': '2ba2da881a07f8444b462bf875e62be0', 'sha1': 'f1f596fa17ccef60ff43ed30e6931eb6ab1f38bc', 'sha256': '9e55cc30716046fc1eb7cb27f1321a6e87ab7a29f405bd5858f5d09aeeac9721'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '74195f97-54ec-41f1-aa35-4c9699ef7823', 'username': 'angryduck422', 'password': 'hardrock', 'salt': 'qU8ITnbo', 'md5': 'edc3cc0ed34976b55b8701b586d94e4d', 'sha1': '6f258727f93fb9dee0182d08ec05840b3e7ebfa6', 'sha256': '3afd9e1578ac29e3d848c037a084f02e31348f7a9dd33c42a85309588f725dd2'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'ff22b7ab-9729-4ddc-9083-69a26fc353e6', 'username': 'ticklishmeercat377', 'password': 'javelin', 'salt': 's1GPcnVH', 'md5': '32b9c117ae90793530ed6542c0edbb81', 'sha1': '77547e4fe1dfe6c87dc54d775e77cbfda2ec88c7', 'sha256': '2ed964a5b0603a1221ef6661a0efa8562c19649a71832e2e786da9171a3df7e4'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'b790403d-78bf-4291-ae92-21f58361ccdb', 'username': 'greenfrog518', 'password': 'hansen', 'salt': 'Gr9mS2B4', 'md5': '923e6a76d061fd05b13aa401ed7baa1b', 'sha1': 'cb33446d6b49a80ae33ebc068bc0c2e09a5f5cd9', 'sha256': '547be452d99f5f0c6a9061409ac5b8ff795ac2c13abcae0a96f0e0e460767667'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '9b1a7c9c-8b3d-4678-90ec-91af9e2e7152', 'username': 'lazyfrog220', 'password': 'cupoi', 'salt': '0IT0x01t', 'md5': '0d25e33cf82a2217495561e4c99d5f4d', 'sha1': '4c8e6801f8f7768c4df89fb2d2a18c878f6e979b', 'sha256': '7cc509a875c70335539c7fb8915b590d45b43ee83ae1b37d3104570723483b29'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '31c1ad1b-d488-48bf-949e-cce988f47291', 'username': 'yellowcat687', 'password': 'comfort', 'salt': 'PFXf7LKE', 'md5': '349f40b895f4c55c2723aa9d45a30fc3', 'sha1': '3ce5573fe9da239005df7936af915946986f01e0', 'sha256': 'bda74aaac825675456f78aa0fc7b8161f4f33358dc90a51faa6f773a0225681b'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '8fabc860-6d28-4015-92cb-15cb0dcb308a', 'username': 'yellowfrog300', 'password': 'bailey1', 'salt': 'AXeQVcgy', 'md5': 'f8e078fe8e9bea276cdfabff587f7fdd', 'sha1': 'f5f7a81a43c03324e91c0c862337a22d1a79dab2', 'sha256': '7c345dbfbdc2ff596fd828358bf03c3a17dbea4d094ac8227817692e53e38556'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '7a0522b0-9fee-4357-a264-bd3882ea233d', 'username': 'tinysnake704', 'password': 'danzig', 'salt': 'pkxmCjY8', 'md5': '352d9c8174dcccb02623f376421912de', 'sha1': '3a50c780c5948eab18f659616bfc38c1fb92e1b7', 'sha256': '3968560959681060cd265e9fb401affacf0714821a7d9585055e2a2f2fbdb061'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '09246174-cf8b-4303-a035-fe2698fa2ec8', 'username': 'smallpanda236', 'password': 'bradford', 'salt': 'HWZaZpL7', 'md5': 'c4d2b87553e6d8d903b330a772bd63c3', 'sha1': '994eca45ffdde138d56463951f5fd3854813dcc8', 'sha256': '151771329d9c9fdbf95d751ec61c73463cd9874481dd8284e319e4f961210e8f'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '82e1a4b3-7d0e-4cae-b019-e44d8a03c87d', 'username': 'blackfrog894', 'password': 'austria', 'salt': 'pDfjUmHQ', 'md5': 'fc1d9f28214093cb1110746a98615f0e', 'sha1': 'f5625e427f333b124e1b29a8d6c5c0c61f8d516b', 'sha256': 'd2591e69ed35254c129f70273bf1f737c01b205c8eba11a417b7cfba84f0e6b2'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'f13768d6-0ad4-47fd-ae30-6fe50864024d', 'username': 'redladybug678', 'password': 'dragons', 'salt': 'pYT0BByz', 'md5': 'a6df88af04a4ff35f111dc1db75e72ea', 'sha1': '8a3e96765ab1878ddf033dbca40fc09a4c4333b0', 'sha256': 'a94b67cc3e694e32fe578a72f1f2f3f9f15a03833a01eb8bad3e2ebe0d9f19cd'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'e3df6eeb-84f3-4bd7-a654-7a8b79380f4a', 'username': 'bluewolf738', 'password': 'crystal', 'salt': 'Me3JyPa9', 'md5': '434f597d1edcb1097976f072f0a465f5', 'sha1': '430d1921a6b2fb3b690b57ed0416c59fac61493c', 'sha256': '3f07627a5e63ba5b2160ac3cbcade09dc5532edc17a97cfba64e86db373936e0'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '74e1842b-a482-4762-b76f-9fd3c04f8bf6', 'username': 'bluepanda525', 'password': 'recovery', 'salt': 'uR9bw3H8', 'md5': '5f6d703fa551b9bf9cdf5eafe7486117', 'sha1': '4915607b98dc799949efd087c2ca40f217c2f479', 'sha256': 'b0ba776b555722d9ad6d358e7f3dccda804c2af8743b3c63f0ee8ffad298ee99'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '44842146-ed98-4296-8cc1-942dbad08c67', 'username': 'tinycat398', 'password': 'zulu', 'salt': 'k39z5OuQ', 'md5': 'dbb12a9c5404241809132aec2dc76782', 'sha1': '31ceb0a0401759860bc83a527d26e37c17c3e1ab', 'sha256': 'babb632d70d77eca4704134484412dc1b2e83eaae5d3e83898522070a5e21d49'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '8900613e-a8c1-4e99-b3f2-a11c0a1bae29', 'username': 'greenbird266', 'password': '575757', 'salt': 'mAx50W94', 'md5': 'a34e1fcd371892fe67f52b3d732eb4a8', 'sha1': '964f8a44ae4bfb0564743f523263c5895d736790', 'sha256': '78f4956bed8d73bc348c89f7256c08eb9023469406e4ac39edd49f157fb1d1d4'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'f0c33ea9-9aa1-4aef-aa08-66427f4ad7e1', 'username': 'smallmeercat521', 'password': 'premier', 'salt': 'EuG4aJj1', 'md5': '24658e3ae93dcd0d4329ba31fa32fd06', 'sha1': '449957531e3faed77017081a247056d4608378c6', 'sha256': '252fe28db845dffc5741c2dcd15f078ee87ac5330b96f0cd833caa5eda0525f0'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'e237d788-ad6f-41d8-8e3d-253287135bc3', 'username': 'smallbear793', 'password': '77777', 'salt': 'V2OdpUYS', 'md5': '5b97622b8be67839e86439c52fff7223', 'sha1': 'abc81e9ce3ed73a3dcadcbd30dfb56c606c76f6b', 'sha256': '1400a79002f7bdc316a312380b5f1e737867e27732f079e89d499fad2234d469'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'e7e69908-a00c-4df5-ae56-b5825947dc15', 'username': 'bluezebra377', 'password': 'seeker', 'salt': 'Oir0WDhP', 'md5': '755da6ebc1d8ce4688bb333d1b594930', 'sha1': '97c8ad5d14bd9f6128a6d546ed52cf322eb09a63', 'sha256': '18239bbd7f8a72dedaaee3b53cf7588222461a1c2732c787cb0e846ce904936d'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'd6f236e2-2403-4351-aab8-2066ad4ecabb', 'username': 'silvercat783', 'password': '383838', 'salt': 'nVImzG4k', 'md5': 'a557046345371ec645a1de9b6a51ff5c', 'sha1': '2968f6ad87fcef8da2b2296f833b19c672636736', 'sha256': '91ad118f05dc3171a735b4d005be92c1b30336896ec7f1445a9da194c92263dd'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '5df698d7-0cc1-4bf0-996c-4dc9abc0c85d', 'username': 'ticklishostrich199', 'password': 'tootsie', 'salt': 'OztzIgcM', 'md5': 'fabad8bc86e1ef23c5fe2c2382321dcc', 'sha1': '83747e4f8fd846a15277693a782564c7d0dbf824', 'sha256': 'b2013a2db64d45635238a546b963e0875593c060af4e88c5a72f52a1bb36385a'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '2c6c1ac0-161f-4534-b318-86935d56af1c', 'username': 'bigtiger627', 'password': 'shock', 'salt': 'j42jXnEX', 'md5': '8b3ba0bf96e12438600e4419c07e991f', 'sha1': 'f97b10633786cdda30976abf2323f1b688bc24d6', 'sha256': '1046df12815976105d82dd92ffe4016731c3c96fbe7034e93d1807799c9f8aa2'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'c7919de2-d281-4e71-bb44-f26f0f93e1f2', 'username': 'heavyzebra766', 'password': 'bugs', 'salt': '0xEVrRa3', 'md5': 'a80f47d47179f699f496a262267832b7', 'sha1': '92da0180715ae849ac6ccee7e479fd706fd62ba4', 'sha256': '4455b63df26e5dd8c60cbd7174d1856bc23ee01b85f5d51623af8023c34ca1a2'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '85326372-df4e-4da2-8110-faca113b4e5b', 'username': 'blackdog173', 'password': 'ferrari1', 'salt': 'hx6LmPJJ', 'md5': '0ce8c532356df60a4b5297b39992f31f', 'sha1': '0f41b2993ec67b02f10c49c84935e92404ca3df6', 'sha256': '855c0ac24512eef22179f2cbbc3c97c71bbb74ba3793ef2c01b8f8d3551e539a'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '3769e200-0c27-4e98-8d0d-39f2cb2c11cd', 'username': 'beautifulbutterfly325', 'password': 'joanna', 'salt': '8keAhdoT', 'md5': '6c31decd94ff87add5fb9cded523beb9', 'sha1': '74c50b89b5d16a741fa02feba830c661150794f9', 'sha256': '4c9ed7121cfd31a274ca4de2ecf7ed2601d72da3f3d8a81cf90326a111c73586'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '9d2a734c-5af4-4bb3-aca1-298de7af64eb', 'username': 'browntiger110', 'password': 'special', 'salt': 'oGwXszUp', 'md5': '3c58c17c400f77cc0094d5e97d22004c', 'sha1': '1a81a6ecdebe625919d96e92b3f0525760d5abe1', 'sha256': '7bf1cbeecbd74a34ad99e6a4b849c99ae5258efb4c29557be363c7c4b86afad2'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'cd8ac247-12c3-48b1-a5ea-401528dbfc73', 'username': 'blueelephant158', 'password': 'island', 'salt': 'AdEG3Kwn', 'md5': 'b638ec8c9449ea5823d74885e03e50d5', 'sha1': 'ba3b39545dd31462886824e547c47a64b1b95757', 'sha256': '30460fb36cfc6c3fb23a3dead778c60406e1e698d01fce2df98963e6f25be548'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '29274092-266f-45fa-87e8-52ead4dbf776', 'username': 'whitebear321', 'password': 'vladimir', 'salt': 'MORiB8cr', 'md5': '659c9fe4319273ab80e79e614cb738a9', 'sha1': '63caad9587ddcaaf7cc0eb8952d7fc10257d265c', 'sha256': 'e6e760ecdd84bc36fe4f8cac2c046bd156332ff4da3dc8657429ae7814823600'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'a7a7f90e-ca19-4195-ae78-ccca3aac461a', 'username': 'bigbird456', 'password': 'cannon', 'salt': 'G8rmat1t', 'md5': '83a85942531286cf892815becc2d1bc3', 'sha1': '3b8a8ed5af187dddfc310af09117b24e94f8cfb4', 'sha256': '8127bab9e581f636108d3bb0bb4f3b063ffcc604caedd8f2c3b5b3c53c7d44f9'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '061b61f7-c027-4791-a96a-0f43fb161f08', 'username': 'tinybutterfly351', 'password': 'harvard', 'salt': '8hXp7y5j', 'md5': '3694c3efc0e6739a5c3b9989e51781e0', 'sha1': '17fb4d5a755a09c7fec3e5ed026bb969a60892dd', 'sha256': 'd42354623ff1ee1e9bda79f23f20ebf7bad43f81d7da17f292b247c857ee05d5'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '6457da00-bb26-4088-bf2c-97683353cbaf', 'username': 'redtiger313', 'password': 'station', 'salt': 'HhBPxezO', 'md5': 'b32d1f9fdbe5405b6e1cdf8dcff76292', 'sha1': '47124e3f34b3f1661bfe56948af9c29a4f1c1a08', 'sha256': '64969b896021bb3cb230964479b10bdf9711c3b9ed110312d436e1d89bd74a39'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'a54d63bd-584f-444b-84cb-867c81171068', 'username': 'tinypeacock530', 'password': 'fang', 'salt': 'iKRAVZXp', 'md5': 'b067594409287bf6529aaadfacbd75af', 'sha1': '1a0a1246a6e83774552637066434d1e5199ae859', 'sha256': '608c6fd9d3c0cfe097e88f05591084664c5c8eca9cb40b158a9ac44b90efae0d'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '744f4b2b-e89b-4faf-bba0-dcce8e6db88b', 'username': 'ticklishbear725', 'password': 'avatar', 'salt': 'xY4V2Tzf', 'md5': '08286c47cf2efec2fc44dc3a319fef95', 'sha1': '0979cb920ec4ec0550730ddd49d0d35bc9799b19', 'sha256': 'ca5317c9d7223a3b772b3ccca49d05565d0a43d1f04474ce29015b66ba724562'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '98c255bf-05e8-4fb2-b747-c5f593b94f4b', 'username': 'crazyswan899', 'password': 'benson', 'salt': 'TL5zbuhA', 'md5': '21a0be5b761ac8a5da6911367d68d36c', 'sha1': 'f1ece56941a20431e16fda4f5a6765c37c495fc2', 'sha256': '4689e9f8cf460b10f13765bd5eb072e8187563134411a5275b57a20a6eb5f0dc'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'e55bbc7b-9df2-4e3e-adf6-ea5afe257c47', 'username': 'whitebutterfly863', 'password': 'qwertyuiop', 'salt': 'NnAs1EWM', 'md5': '4be2b071993372272d4ba207fde63237', 'sha1': '355d789fd15081b7c5da0c49e9e55a3059aad2e9', 'sha256': '41e32236aab44b6d082d52523431449ccce0d2f82f6acadb2db4eaa176c0d7c0'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '6a35568e-54ca-4633-a5da-30cefcda3366', 'username': 'browntiger868', 'password': 'jones1', 'salt': 'UmeJzGbb', 'md5': 'aeaef1e6f031dd70e6f5483f4b8bce0f', 'sha1': '20e074b1d93b55aade4547bcf56c45e6248a5c3b', 'sha256': '8882fe8f5ede83fe575593158dd1519135d5eea78a7624648d21276324eaaec9'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'cfe06024-397e-4862-9d3f-5e516d8186d0', 'username': 'redduck944', 'password': '0987', 'salt': '4de8YCSH', 'md5': '750fb8c341c456cc99d07b21a415f880', 'sha1': '01c260d99fdde3dc5bdd7566947b56c965993c2c', 'sha256': '981114bf861a2127a7c311ca85437b765465cc7f6dc65c695ec8997f65d3aac6'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'a5c5a648-6aa8-4ba7-98e0-92dbd97c543d', 'username': 'purpleduck652', 'password': 'budweise', 'salt': 'HMxrWuiP', 'md5': 'e6aa6997da92fb0e1aa7c8d1b778acd5', 'sha1': '54c0da0f1b010b3e015a13256a1e90c2db48a850', 'sha256': 'e504b4221d50928a47da1f3f1f93736a1301ea14292c8bcfb5a402a94d3a337a'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'b892f560-23d4-419c-a04a-da5c79cda04b', 'username': 'redsnake396', 'password': 'qwert123', 'salt': 'EnKnqQpE', 'md5': '9d558c09855341d81906b5399e4acc2a', 'sha1': '80503c96364199ed23d2450a25910377ef85932f', 'sha256': '0640602f2e5bcafc30f139a6c74b6f89b4ee7c2c043c174354cebf656312a54d'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '0d0cbc47-961a-4f33-a483-98949960c1a3', 'username': 'orangelion603', 'password': 'blazers', 'salt': '0lzJa6db', 'md5': '38da0918d2c8534ef8f7d2bf0108ed87', 'sha1': 'db5779d0b46b8f7249e68a81733ff26be1bd1cf8', 'sha256': '5b318421140e2cc63ba1a43ddcc16462532a71c030e40b0aaf57b818364fde5c'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '4384a24f-c71a-4c2f-8e2b-f40d455b9218', 'username': 'redsnake574', 'password': 'wanda', 'salt': 'GmDcOrAz', 'md5': '78efc8892f5cf825bdda3807c1ef5433', 'sha1': '64cce22a5a91d9fe792c6b0b1b9b92dd520dfd69', 'sha256': '275c5d023db70dfa79cc61e71575c625640ae98ef3ea8f3d3e9b33415b0ca7f0'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'cb24fddb-cb2a-4261-8b3c-8368e20c1c2e', 'username': 'beautifulbird136', 'password': 'cheeks', 'salt': '2a565lXl', 'md5': 'c8c76bfe786aee886c91164f7d0afca8', 'sha1': 'c8b6c03564445b38ec1b61cc5ce042cc4377d9b4', 'sha256': '8fbc56a259dcc76c0523698a34e85865c97a0bab4f0f2c441626939ae30de925'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '599b7cf1-be15-4ff4-8e44-fc31ad6ac65a', 'username': 'sadfish594', 'password': 'flower', 'salt': 'Rd8IirS8', 'md5': '69a14d68f10e7a47ad4c0164c8f47a61', 'sha1': '1df2b9698448b342682a7617d5bc73f65269553d', 'sha256': '67d3a9cb25d6cab83a2fdfebd10e2a480a1e466b2512403174d42c68c99ef9ae'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '68109eda-111c-4e7f-9f75-a01f4b0ea9cb', 'username': 'angrykoala675', 'password': 'tucker', 'salt': '0gzFj8ns', 'md5': 'ddbd33a7d93f0310e202424cd3b1120b', 'sha1': '05551cde6b70a152b0db5f87c402528950fbf7ed', 'sha256': '261a8862cedfeae3ef9d2683d67f39d5a7b00f324348fd9ac5a0b140232ca8f6'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '82bb947f-c90c-4de4-b119-2ed2c37cc1e9', 'username': 'bigostrich111', 'password': 'tian', 'salt': 'YlEbWCB1', 'md5': '32e81eeec7924de89f8b70148e0f0d36', 'sha1': '4ffc7403e8f096a9961b79ebcc2394b69ee09ec5', 'sha256': 'eda43774df380f77083b494721ccec2d9f72115e35a591e428f08285a7b0f9e9'}</t>
-  </si>
-  <si>
-    <t>{'uuid': 'd93653ee-fd5a-45a2-8d93-2c239ed5d5c2', 'username': 'sadgoose805', 'password': 'weezer', 'salt': '9QvC1rFj', 'md5': '3fecfad05a13d67e29d22cc6f3826fc4', 'sha1': '4fe22a5ff68832cfaf4680c39d0129264a314818', 'sha256': '3a3c3441d3126b54d693c012c3b5b73d5a1052a5a0dcf9871bd5e9583c116801'}</t>
-  </si>
-  <si>
-    <t>{'uuid': '7c4b0e27-fb68-4055-abef-a9e181fe174e', 'username': 'brownelephant385', 'password': 'rafael', 'salt': 'yS1DlKAX', 'md5': '08943e1dc013287ecf1f714310c08269', 'sha1': 'c6819de3b71564169ddb9b9f2d67cf7ee646bd43', 'sha256': '463916bf8987b89e3bff5a62bfa8332f7aa3e7ad4bcc3844af624e4a61296296'}</t>
-  </si>
-  <si>
-    <t>{'date': '1953-08-11T05:53:11.175Z', 'age': 71}</t>
-  </si>
-  <si>
-    <t>{'date': '1987-07-31T21:57:30.650Z', 'age': 37}</t>
-  </si>
-  <si>
-    <t>{'date': '1968-09-30T15:43:15.653Z', 'age': 56}</t>
-  </si>
-  <si>
-    <t>{'date': '1951-09-16T07:56:20.904Z', 'age': 73}</t>
-  </si>
-  <si>
-    <t>{'date': '1958-09-10T00:24:09.840Z', 'age': 66}</t>
-  </si>
-  <si>
-    <t>{'date': '2000-11-16T06:27:56.453Z', 'age': 24}</t>
-  </si>
-  <si>
-    <t>{'date': '1999-06-19T16:34:16.643Z', 'age': 25}</t>
-  </si>
-  <si>
-    <t>{'date': '1980-05-08T16:16:15.870Z', 'age': 44}</t>
-  </si>
-  <si>
-    <t>{'date': '1949-10-26T02:57:28.747Z', 'age': 75}</t>
-  </si>
-  <si>
-    <t>{'date': '1950-06-17T23:03:03.028Z', 'age': 74}</t>
-  </si>
-  <si>
-    <t>{'date': '1960-07-22T21:13:09.830Z', 'age': 64}</t>
-  </si>
-  <si>
-    <t>{'date': '1955-04-01T11:11:51.607Z', 'age': 69}</t>
-  </si>
-  <si>
-    <t>{'date': '1988-03-15T12:41:59.182Z', 'age': 36}</t>
-  </si>
-  <si>
-    <t>{'date': '1980-08-30T15:00:54.599Z', 'age': 44}</t>
-  </si>
-  <si>
-    <t>{'date': '1971-06-30T15:39:47.539Z', 'age': 53}</t>
-  </si>
-  <si>
-    <t>{'date': '1949-12-11T12:48:12.872Z', 'age': 75}</t>
-  </si>
-  <si>
-    <t>{'date': '1959-11-13T18:59:12.813Z', 'age': 65}</t>
-  </si>
-  <si>
-    <t>{'date': '1971-07-13T18:55:56.014Z', 'age': 53}</t>
-  </si>
-  <si>
-    <t>{'date': '1959-12-23T06:36:22.519Z', 'age': 65}</t>
-  </si>
-  <si>
-    <t>{'date': '1990-09-01T04:11:29.295Z', 'age': 34}</t>
-  </si>
-  <si>
-    <t>{'date': '1985-10-27T20:10:46.758Z', 'age': 39}</t>
-  </si>
-  <si>
-    <t>{'date': '1997-06-06T01:08:00.749Z', 'age': 27}</t>
-  </si>
-  <si>
-    <t>{'date': '1953-01-15T03:57:17.235Z', 'age': 72}</t>
-  </si>
-  <si>
-    <t>{'date': '1948-08-03T13:18:34.926Z', 'age': 76}</t>
-  </si>
-  <si>
-    <t>{'date': '1974-04-09T23:08:06.904Z', 'age': 50}</t>
-  </si>
-  <si>
-    <t>{'date': '1968-11-01T02:57:55.300Z', 'age': 56}</t>
-  </si>
-  <si>
-    <t>{'date': '1950-04-09T14:24:06.143Z', 'age': 74}</t>
-  </si>
-  <si>
-    <t>{'date': '1989-05-22T03:54:21.178Z', 'age': 35}</t>
-  </si>
-  <si>
-    <t>{'date': '1995-12-04T03:02:46.273Z', 'age': 29}</t>
-  </si>
-  <si>
-    <t>{'date': '1990-09-23T18:07:52.920Z', 'age': 34}</t>
-  </si>
-  <si>
-    <t>{'date': '1951-07-11T00:22:17.153Z', 'age': 73}</t>
-  </si>
-  <si>
-    <t>{'date': '1997-06-13T23:42:20.723Z', 'age': 27}</t>
-  </si>
-  <si>
-    <t>{'date': '1971-01-23T01:12:23.279Z', 'age': 54}</t>
-  </si>
-  <si>
-    <t>{'date': '1973-05-22T18:13:05.457Z', 'age': 51}</t>
-  </si>
-  <si>
-    <t>{'date': '1983-11-11T02:15:43.957Z', 'age': 41}</t>
-  </si>
-  <si>
-    <t>{'date': '1982-11-21T12:07:35.380Z', 'age': 42}</t>
-  </si>
-  <si>
-    <t>{'date': '1997-05-11T01:46:51.563Z', 'age': 27}</t>
-  </si>
-  <si>
-    <t>{'date': '1961-04-12T18:57:12.948Z', 'age': 63}</t>
-  </si>
-  <si>
-    <t>{'date': '1969-05-03T03:55:13.764Z', 'age': 55}</t>
-  </si>
-  <si>
-    <t>{'date': '1990-05-31T09:26:23.081Z', 'age': 34}</t>
-  </si>
-  <si>
-    <t>{'date': '1959-07-24T08:14:58.980Z', 'age': 65}</t>
-  </si>
-  <si>
-    <t>{'date': '1965-09-10T12:52:15.581Z', 'age': 59}</t>
-  </si>
-  <si>
-    <t>{'date': '1965-07-04T14:27:12.757Z', 'age': 59}</t>
-  </si>
-  <si>
-    <t>{'date': '1957-12-10T19:46:16.005Z', 'age': 67}</t>
-  </si>
-  <si>
-    <t>{'date': '1951-03-02T17:44:00.668Z', 'age': 74}</t>
-  </si>
-  <si>
-    <t>{'date': '1975-11-12T03:01:55.688Z', 'age': 49}</t>
-  </si>
-  <si>
-    <t>{'date': '1962-09-06T03:36:06.247Z', 'age': 62}</t>
-  </si>
-  <si>
-    <t>{'date': '1956-02-07T17:04:15.974Z', 'age': 69}</t>
-  </si>
-  <si>
-    <t>{'date': '1969-06-28T14:51:37.893Z', 'age': 55}</t>
-  </si>
-  <si>
-    <t>{'date': '1976-08-21T12:06:56.025Z', 'age': 48}</t>
-  </si>
-  <si>
-    <t>{'date': '2017-06-27T14:50:34.978Z', 'age': 7}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-03-31T16:51:20.264Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2005-10-21T02:50:43.022Z', 'age': 19}</t>
-  </si>
-  <si>
-    <t>{'date': '2015-10-24T04:44:41.317Z', 'age': 9}</t>
-  </si>
-  <si>
-    <t>{'date': '2002-10-28T03:38:52.921Z', 'age': 22}</t>
-  </si>
-  <si>
-    <t>{'date': '2020-03-13T07:03:04.847Z', 'age': 5}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-01-29T19:34:58.694Z', 'age': 21}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-08-29T04:18:56.703Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2008-05-05T21:46:40.749Z', 'age': 16}</t>
-  </si>
-  <si>
-    <t>{'date': '2003-07-14T13:18:04.053Z', 'age': 21}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-06-25T00:23:30.390Z', 'age': 3}</t>
-  </si>
-  <si>
-    <t>{'date': '2013-05-25T04:01:53.279Z', 'age': 11}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-02-25T07:26:09.029Z', 'age': 21}</t>
-  </si>
-  <si>
-    <t>{'date': '2007-11-18T08:09:14.352Z', 'age': 17}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-05-20T08:01:40.212Z', 'age': 3}</t>
-  </si>
-  <si>
-    <t>{'date': '2010-11-01T11:07:14.602Z', 'age': 14}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-04-02T03:22:55.234Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2017-07-28T16:54:50.713Z', 'age': 7}</t>
-  </si>
-  <si>
-    <t>{'date': '2006-08-15T00:49:09.941Z', 'age': 18}</t>
-  </si>
-  <si>
-    <t>{'date': '2008-10-11T09:52:48.219Z', 'age': 16}</t>
-  </si>
-  <si>
-    <t>{'date': '2018-08-04T02:27:20.783Z', 'age': 6}</t>
-  </si>
-  <si>
-    <t>{'date': '2005-09-24T21:57:55.791Z', 'age': 19}</t>
-  </si>
-  <si>
-    <t>{'date': '2020-02-27T09:22:39.659Z', 'age': 5}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-02-29T06:34:49.454Z', 'age': 21}</t>
-  </si>
-  <si>
-    <t>{'date': '2003-11-26T05:16:40.752Z', 'age': 21}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-08-17T23:03:25.338Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-07-17T20:58:09.695Z', 'age': 3}</t>
-  </si>
-  <si>
-    <t>{'date': '2015-08-04T01:06:37.541Z', 'age': 9}</t>
-  </si>
-  <si>
-    <t>{'date': '2009-08-06T09:31:30.535Z', 'age': 15}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-02-09T09:35:48.913Z', 'age': 4}</t>
-  </si>
-  <si>
-    <t>{'date': '2016-03-03T16:20:11.046Z', 'age': 9}</t>
-  </si>
-  <si>
-    <t>{'date': '2017-01-30T05:45:12.959Z', 'age': 8}</t>
-  </si>
-  <si>
-    <t>{'date': '2009-06-19T16:07:33.144Z', 'age': 15}</t>
-  </si>
-  <si>
-    <t>{'date': '2002-11-05T22:27:12.327Z', 'age': 22}</t>
-  </si>
-  <si>
-    <t>{'date': '2005-07-24T21:10:50.791Z', 'age': 19}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-05-01T15:43:57.716Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2014-11-06T19:29:26.627Z', 'age': 10}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-05-09T12:42:46.435Z', 'age': 20}</t>
-  </si>
-  <si>
-    <t>{'date': '2011-09-08T03:50:02.534Z', 'age': 13}</t>
-  </si>
-  <si>
-    <t>{'date': '2015-12-21T05:52:21.577Z', 'age': 9}</t>
-  </si>
-  <si>
-    <t>{'date': '2011-09-25T11:43:41.127Z', 'age': 13}</t>
-  </si>
-  <si>
-    <t>{'date': '2020-10-28T11:33:41.278Z', 'age': 4}</t>
-  </si>
-  <si>
-    <t>{'date': '2011-08-20T04:24:44.596Z', 'age': 13}</t>
-  </si>
-  <si>
-    <t>{'date': '2009-09-29T16:49:30.802Z', 'age': 15}</t>
-  </si>
-  <si>
-    <t>{'date': '2014-05-05T01:04:57.331Z', 'age': 10}</t>
-  </si>
-  <si>
-    <t>{'date': '2011-03-06T18:36:59.131Z', 'age': 14}</t>
-  </si>
-  <si>
-    <t>{'date': '2014-06-23T22:08:47.067Z', 'age': 10}</t>
-  </si>
-  <si>
-    <t>{'date': '2012-07-04T09:49:48.405Z', 'age': 12}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-05-23T16:13:37.922Z', 'age': 20}</t>
-  </si>
-  <si>
-    <t>{'date': '2004-06-29T21:03:20.099Z', 'age': 20}</t>
-  </si>
-  <si>
-    <t>(099) E37-3288</t>
-  </si>
-  <si>
-    <t>05611856</t>
-  </si>
-  <si>
-    <t>015395 21431</t>
-  </si>
-  <si>
-    <t>7783555793</t>
-  </si>
-  <si>
-    <t>8714603117</t>
-  </si>
-  <si>
-    <t>0455-9619753</t>
-  </si>
-  <si>
-    <t>04-3584-0682</t>
-  </si>
-  <si>
-    <t>026-1509-262</t>
-  </si>
-  <si>
-    <t>071-855-1542</t>
-  </si>
-  <si>
-    <t>017687 34934</t>
-  </si>
-  <si>
-    <t>(0469) 073274</t>
-  </si>
-  <si>
-    <t>010-96761127</t>
-  </si>
-  <si>
-    <t>9869681642</t>
-  </si>
-  <si>
-    <t>903-158-797</t>
-  </si>
-  <si>
-    <t>(287) 715-0534</t>
-  </si>
-  <si>
-    <t>Y05 P33-2348</t>
-  </si>
-  <si>
-    <t>39352652</t>
-  </si>
-  <si>
-    <t>(411)-362-3335</t>
-  </si>
-  <si>
-    <t>028-5413-829</t>
-  </si>
-  <si>
-    <t>03-847-755</t>
-  </si>
-  <si>
-    <t>(464)-069-2292</t>
-  </si>
-  <si>
-    <t>(920)-833-3761</t>
-  </si>
-  <si>
-    <t>(536)-674-7917</t>
-  </si>
-  <si>
-    <t>(949) 494-3600</t>
-  </si>
-  <si>
-    <t>(523)-328-8983</t>
-  </si>
-  <si>
-    <t>076 879 96 59</t>
-  </si>
-  <si>
-    <t>962-932-424</t>
-  </si>
-  <si>
-    <t>003-75556309</t>
-  </si>
-  <si>
-    <t>0776-6278703</t>
-  </si>
-  <si>
-    <t>7201316272</t>
-  </si>
-  <si>
-    <t>079 134 94 75</t>
-  </si>
-  <si>
-    <t>(404) 666-4879</t>
-  </si>
-  <si>
-    <t>03-088-384</t>
-  </si>
-  <si>
-    <t>(815)-407-1668</t>
-  </si>
-  <si>
-    <t>06-340-063</t>
-  </si>
-  <si>
-    <t>(661) 590 3306</t>
-  </si>
-  <si>
-    <t>02-400-532</t>
-  </si>
-  <si>
-    <t>0067-7247731</t>
-  </si>
-  <si>
-    <t>06-014-385</t>
-  </si>
-  <si>
-    <t>05-378-033</t>
-  </si>
-  <si>
-    <t>08-136-795</t>
-  </si>
-  <si>
-    <t>012-7537-147</t>
-  </si>
-  <si>
-    <t>44912545</t>
-  </si>
-  <si>
-    <t>(768)-282-3784</t>
-  </si>
-  <si>
-    <t>(713) 890-0982</t>
-  </si>
-  <si>
-    <t>09-7675-6099</t>
-  </si>
-  <si>
-    <t>(0730) 342547</t>
-  </si>
-  <si>
-    <t>92851575</t>
-  </si>
-  <si>
-    <t>(400) 816-9631</t>
-  </si>
-  <si>
-    <t>(672) 816 5608</t>
-  </si>
-  <si>
-    <t>(099) T87-8423</t>
-  </si>
-  <si>
-    <t>96086840</t>
-  </si>
-  <si>
-    <t>07972 329367</t>
-  </si>
-  <si>
-    <t>7597796559</t>
-  </si>
-  <si>
-    <t>7598923441</t>
-  </si>
-  <si>
-    <t>0175-5191627</t>
-  </si>
-  <si>
-    <t>0449-819-104</t>
-  </si>
-  <si>
-    <t>067-4280-521</t>
-  </si>
-  <si>
-    <t>081-770-5218</t>
-  </si>
-  <si>
-    <t>07391 248112</t>
-  </si>
-  <si>
-    <t>(06) 16891815</t>
-  </si>
-  <si>
-    <t>0939-379-7243</t>
-  </si>
-  <si>
-    <t>7736926724</t>
-  </si>
-  <si>
-    <t>642-561-514</t>
-  </si>
-  <si>
-    <t>(945) 877-6266</t>
-  </si>
-  <si>
-    <t>Q00 S71-4055</t>
-  </si>
-  <si>
-    <t>92750933</t>
-  </si>
-  <si>
-    <t>(932)-763-2163</t>
-  </si>
-  <si>
-    <t>063-9303-850</t>
-  </si>
-  <si>
-    <t>041-934-01-28</t>
-  </si>
-  <si>
-    <t>(515)-553-5530</t>
-  </si>
-  <si>
-    <t>(159)-577-1298</t>
-  </si>
-  <si>
-    <t>(813)-992-0822</t>
-  </si>
-  <si>
-    <t>(927) 286-5773</t>
-  </si>
-  <si>
-    <t>(636)-178-5218</t>
-  </si>
-  <si>
-    <t>075 519 90 42</t>
-  </si>
-  <si>
-    <t>648-654-284</t>
-  </si>
-  <si>
-    <t>0957-186-1211</t>
-  </si>
-  <si>
-    <t>0175-8090737</t>
-  </si>
-  <si>
-    <t>7662642567</t>
-  </si>
-  <si>
-    <t>076 758 61 25</t>
-  </si>
-  <si>
-    <t>(493) 752-3591</t>
-  </si>
-  <si>
-    <t>041-254-19-85</t>
-  </si>
-  <si>
-    <t>(635)-679-4795</t>
-  </si>
-  <si>
-    <t>040-345-78-41</t>
-  </si>
-  <si>
-    <t>(632) 457 1858</t>
-  </si>
-  <si>
-    <t>044-330-19-88</t>
-  </si>
-  <si>
-    <t>0178-8709346</t>
-  </si>
-  <si>
-    <t>046-134-72-33</t>
-  </si>
-  <si>
-    <t>041-803-78-74</t>
-  </si>
-  <si>
-    <t>049-014-19-66</t>
-  </si>
-  <si>
-    <t>064-4328-763</t>
-  </si>
-  <si>
-    <t>00995813</t>
-  </si>
-  <si>
-    <t>(820)-642-9075</t>
-  </si>
-  <si>
-    <t>(684) 772-7236</t>
-  </si>
-  <si>
-    <t>0466-670-228</t>
-  </si>
-  <si>
-    <t>(06) 59699095</t>
-  </si>
-  <si>
-    <t>68821285</t>
-  </si>
-  <si>
-    <t>(952) 708-2689</t>
-  </si>
-  <si>
-    <t>(637) 457 5726</t>
+    <t>{'title': 'Mrs', 'first': 'Camille', 'last': 'Grewal'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'John', 'last': 'Prieto'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Hilla', 'last': 'Jutila'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Folkert', 'last': 'Kampe'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Mikkel', 'last': 'Larsen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Velichar', 'last': 'Asaula'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Marcus', 'last': 'Gomez'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Hredhaan', 'last': 'Shayana'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Chad', 'last': 'Payne'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Taahira', 'last': 'Prabhu'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Željka', 'last': 'Abramović'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Flavio', 'last': 'Martínez'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Joan', 'last': 'Wood'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Sietze', 'last': 'Houtveen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Jihad', 'last': 'De Rijcke'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Sanni', 'last': 'Saari'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Albane', 'last': 'Faure'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Özsu', 'last': 'Ekşioğlu'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Macit', 'last': 'Evliyaoğlu'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Arttu', 'last': 'Tikkanen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Artur', 'last': 'Astrup'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Necati', 'last': 'Dalkıran'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Naja', 'last': 'Sørensen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Kaylee', 'last': 'Simmons'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'Eliza', 'last': 'Cook'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Pedro', 'last': 'Moreno'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Britney', 'last': 'Sullivan'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mrs', 'first': 'باران', 'last': 'مرادی'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Ms', 'first': 'Anouschka', 'last': 'Essink'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Monsieur', 'first': 'Timothy', 'last': 'Guerin'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Ms', 'first': 'Mahika', 'last': 'Kulkarni'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Diane', 'last': 'Mills'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Dev', 'last': 'Shetty'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Domorad', 'last': 'Maksyuta'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Konsta', 'last': 'Pietila'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Kasper', 'last': 'Kotila'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Grimaldo', 'last': 'Acosta'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'سام', 'last': 'علیزاده'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Roberto', 'last': 'Prieto'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Christian', 'last': 'Strehl'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Ms', 'first': 'Kreszenz', 'last': 'Puls'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Joseph', 'last': 'Augestad'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Esteban', 'last': 'Diez'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Monsieur', 'first': 'Valentino', 'last': 'Martin'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Marine', 'last': 'Louis'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Rasmus', 'last': 'Wiitala'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Alexander', 'last': 'Jensen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Ms', 'first': 'Olivia', 'last': 'Pedersen'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Miss', 'first': 'Geraldine', 'last': 'Temme'}</t>
+  </si>
+  <si>
+    <t>{'title': 'Mr', 'first': 'Andy', 'last': 'Sutton'}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 6206, 'name': 'Bay Ave'}, 'city': 'Winfield', 'state': 'Ontario', 'country': 'Canada', 'postcode': 'L6O 6W0', 'coordinates': {'latitude': '-68.4769', 'longitude': '80.5094'}, 'timezone': {'offset': '-4:00', 'description': 'Atlantic Time (Canada), Caracas, La Paz'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2190, 'name': 'Ronda de Toledo'}, 'city': 'Lugo', 'state': 'Región de Murcia', 'country': 'Spain', 'postcode': 72949, 'coordinates': {'latitude': '19.1954', 'longitude': '139.9256'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 1765, 'name': 'Otavalankatu'}, 'city': 'Virrat', 'state': 'Ostrobothnia', 'country': 'Finland', 'postcode': 61507, 'coordinates': {'latitude': '9.5349', 'longitude': '57.4024'}, 'timezone': {'offset': '+1:00', 'description': 'Brussels, Copenhagen, Madrid, Paris'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 4622, 'name': 'Rosenstraße'}, 'city': 'Gartz (Oder)', 'state': 'Schleswig-Holstein', 'country': 'Germany', 'postcode': 54340, 'coordinates': {'latitude': '40.7762', 'longitude': '-137.5592'}, 'timezone': {'offset': '+5:30', 'description': 'Bombay, Calcutta, Madras, New Delhi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 580, 'name': 'Vardevej'}, 'city': 'Hornbæk', 'state': 'Syddanmark', 'country': 'Denmark', 'postcode': 35692, 'coordinates': {'latitude': '67.7782', 'longitude': '-174.6854'}, 'timezone': {'offset': '+4:00', 'description': 'Abu Dhabi, Muscat, Baku, Tbilisi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2168, 'name': 'Velika Naberezhna'}, 'city': 'Pidgorodne', 'state': 'Avtonomna Respublika Krim', 'country': 'Ukraine', 'postcode': 26539, 'coordinates': {'latitude': '-10.6025', 'longitude': '-84.0612'}, 'timezone': {'offset': '+5:45', 'description': 'Kathmandu'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3919, 'name': 'Saddle Dr'}, 'city': 'Oceanside', 'state': 'Louisiana', 'country': 'United States', 'postcode': 61540, 'coordinates': {'latitude': '85.0261', 'longitude': '40.3779'}, 'timezone': {'offset': '+3:30', 'description': 'Tehran'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 1934, 'name': 'Bhavani Peth'}, 'city': 'Bharatpur', 'state': 'Haryana', 'country': 'India', 'postcode': 27106, 'coordinates': {'latitude': '80.1539', 'longitude': '154.8291'}, 'timezone': {'offset': '-2:00', 'description': 'Mid-Atlantic'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2648, 'name': 'Westheimer Rd'}, 'city': 'Lansing', 'state': 'Kansas', 'country': 'United States', 'postcode': 32677, 'coordinates': {'latitude': '-56.9209', 'longitude': '-71.7762'}, 'timezone': {'offset': '+5:45', 'description': 'Kathmandu'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 9113, 'name': 'Pali Hill'}, 'city': 'Mysore', 'state': 'Chhattisgarh', 'country': 'India', 'postcode': 19485, 'coordinates': {'latitude': '-43.2324', 'longitude': '57.8314'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 4849, 'name': 'Rada Brankovića'}, 'city': 'Aranđelovac', 'state': 'Moravica', 'country': 'Serbia', 'postcode': 95533, 'coordinates': {'latitude': '23.5723', 'longitude': '113.0451'}, 'timezone': {'offset': '-10:00', 'description': 'Hawaii'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2094, 'name': 'Boulevard Sur Salazar'}, 'city': 'San Pedro O Saucito', 'state': 'Jalisco', 'country': 'Mexico', 'postcode': 11705, 'coordinates': {'latitude': '14.7015', 'longitude': '-56.0323'}, 'timezone': {'offset': '-5:00', 'description': 'Eastern Time (US &amp; Canada), Bogota, Lima'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 133, 'name': 'Dane St'}, 'city': 'Gladstone', 'state': 'Northern Territory', 'country': 'Australia', 'postcode': 2018, 'coordinates': {'latitude': '38.5472', 'longitude': '-71.5258'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 7147, 'name': 'Boxwoudstraat'}, 'city': 'Schildwolde', 'state': 'Flevoland', 'country': 'Netherlands', 'postcode': '2855 WA', 'coordinates': {'latitude': '22.2520', 'longitude': '115.7873'}, 'timezone': {'offset': '+4:00', 'description': 'Abu Dhabi, Muscat, Baku, Tbilisi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2176, 'name': 'De Schaarsen'}, 'city': 'Rockanje', 'state': 'Groningen', 'country': 'Netherlands', 'postcode': '9508 KZ', 'coordinates': {'latitude': '72.7238', 'longitude': '148.1610'}, 'timezone': {'offset': '+7:00', 'description': 'Bangkok, Hanoi, Jakarta'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 111, 'name': 'Hämeentie'}, 'city': 'Eckerö', 'state': 'North Karelia', 'country': 'Finland', 'postcode': 73017, 'coordinates': {'latitude': '8.5671', 'longitude': '19.0249'}, 'timezone': {'offset': '+9:00', 'description': 'Tokyo, Seoul, Osaka, Sapporo, Yakutsk'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2540, 'name': 'Avenue du Fort-Caire'}, 'city': 'Lyon', 'state': 'La Réunion', 'country': 'France', 'postcode': 11949, 'coordinates': {'latitude': '-25.9397', 'longitude': '162.1337'}, 'timezone': {'offset': '-12:00', 'description': 'Eniwetok, Kwajalein'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 6206, 'name': 'Fatih Sultan Mehmet Cd'}, 'city': 'Yozgat', 'state': 'Kastamonu', 'country': 'Turkey', 'postcode': 65667, 'coordinates': {'latitude': '87.1796', 'longitude': '88.8358'}, 'timezone': {'offset': '+11:00', 'description': 'Magadan, Solomon Islands, New Caledonia'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 7478, 'name': 'Necatibey Cd'}, 'city': 'Isparta', 'state': 'Çanakkale', 'country': 'Turkey', 'postcode': 15209, 'coordinates': {'latitude': '34.2542', 'longitude': '-55.3057'}, 'timezone': {'offset': '+5:00', 'description': 'Ekaterinburg, Islamabad, Karachi, Tashkent'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 6663, 'name': 'Pyynikintie'}, 'city': 'Korsholm', 'state': 'Pirkanmaa', 'country': 'Finland', 'postcode': 73151, 'coordinates': {'latitude': '-5.7028', 'longitude': '175.3724'}, 'timezone': {'offset': '-5:00', 'description': 'Eastern Time (US &amp; Canada), Bogota, Lima'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 75, 'name': 'Stjerneveien'}, 'city': 'Sylling', 'state': 'Rogaland', 'country': 'Norway', 'postcode': '7634', 'coordinates': {'latitude': '49.1607', 'longitude': '122.2006'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 597, 'name': 'Tunalı Hilmi Cd'}, 'city': 'Karaman', 'state': 'Diyarbakır', 'country': 'Turkey', 'postcode': 74994, 'coordinates': {'latitude': '47.8192', 'longitude': '100.0748'}, 'timezone': {'offset': '-3:00', 'description': 'Brazil, Buenos Aires, Georgetown'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 8194, 'name': 'Lyøvej'}, 'city': 'Gjerlev', 'state': 'Syddanmark', 'country': 'Denmark', 'postcode': 80420, 'coordinates': {'latitude': '-4.0137', 'longitude': '140.1751'}, 'timezone': {'offset': '+2:00', 'description': 'Kaliningrad, South Africa'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2784, 'name': 'Spring Hill Rd'}, 'city': 'Ballarat', 'state': 'Queensland', 'country': 'Australia', 'postcode': 3132, 'coordinates': {'latitude': '16.0626', 'longitude': '166.1353'}, 'timezone': {'offset': '+8:00', 'description': 'Beijing, Perth, Singapore, Hong Kong'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 4310, 'name': 'West Street'}, 'city': 'Canterbury', 'state': 'Shropshire', 'country': 'United Kingdom', 'postcode': 'Y25 7QL', 'coordinates': {'latitude': '-75.0695', 'longitude': '70.1135'}, 'timezone': {'offset': '-7:00', 'description': 'Mountain Time (US &amp; Canada)'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 319, 'name': 'Avenida de Andalucía'}, 'city': 'Alcalá de Henares', 'state': 'Comunidad de Madrid', 'country': 'Spain', 'postcode': 29569, 'coordinates': {'latitude': '-79.8084', 'longitude': '69.5137'}, 'timezone': {'offset': '+10:00', 'description': 'Eastern Australia, Guam, Vladivostok'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 1049, 'name': 'Grange Road'}, 'city': 'Roscommon', 'state': 'Sligo', 'country': 'Ireland', 'postcode': 75973, 'coordinates': {'latitude': '-38.1004', 'longitude': '-45.2715'}, 'timezone': {'offset': '-11:00', 'description': 'Midway Island, Samoa'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2648, 'name': 'فلاحی'}, 'city': 'بوشهر', 'state': 'زنجان', 'country': 'Iran', 'postcode': 37088, 'coordinates': {'latitude': '-16.3738', 'longitude': '169.0542'}, 'timezone': {'offset': '+9:00', 'description': 'Tokyo, Seoul, Osaka, Sapporo, Yakutsk'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 7371, 'name': 'Blankenburg'}, 'city': 'Groote Keeten', 'state': 'Noord-Holland', 'country': 'Netherlands', 'postcode': '9394 CP', 'coordinates': {'latitude': '-2.1487', 'longitude': '-113.3443'}, 'timezone': {'offset': '+4:00', 'description': 'Abu Dhabi, Muscat, Baku, Tbilisi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2624, 'name': 'Rue de la Barre'}, 'city': 'Galgenen', 'state': 'Neuchâtel', 'country': 'Switzerland', 'postcode': 7871, 'coordinates': {'latitude': '44.6010', 'longitude': '16.7852'}, 'timezone': {'offset': '-5:00', 'description': 'Eastern Time (US &amp; Canada), Bogota, Lima'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 2212, 'name': 'Commercial St'}, 'city': 'Gwalior', 'state': 'Tripura', 'country': 'India', 'postcode': 33415, 'coordinates': {'latitude': '-40.3314', 'longitude': '-89.1961'}, 'timezone': {'offset': '+3:30', 'description': 'Tehran'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 946, 'name': 'Albert Road'}, 'city': 'Preston', 'state': 'Gwynedd County', 'country': 'United Kingdom', 'postcode': 'Q5M 3GE', 'coordinates': {'latitude': '-47.0789', 'longitude': '-128.6082'}, 'timezone': {'offset': '+5:45', 'description': 'Kathmandu'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 578, 'name': 'Shanmugham Rd'}, 'city': 'Mumbai', 'state': 'Punjab', 'country': 'India', 'postcode': 78126, 'coordinates': {'latitude': '83.4468', 'longitude': '179.0590'}, 'timezone': {'offset': '-3:30', 'description': 'Newfoundland'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 9699, 'name': 'Mikoli Kopernika'}, 'city': 'Alushta', 'state': 'Poltavska', 'country': 'Ukraine', 'postcode': 52557, 'coordinates': {'latitude': '-79.2588', 'longitude': '67.3441'}, 'timezone': {'offset': '+11:00', 'description': 'Magadan, Solomon Islands, New Caledonia'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3389, 'name': 'Tehtaankatu'}, 'city': 'Pudasjärvi', 'state': 'Åland', 'country': 'Finland', 'postcode': 16695, 'coordinates': {'latitude': '-44.2418', 'longitude': '-99.4323'}, 'timezone': {'offset': '-4:00', 'description': 'Atlantic Time (Canada), Caracas, La Paz'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 8369, 'name': 'Hatanpään Valtatie'}, 'city': 'Paltamo', 'state': 'Åland', 'country': 'Finland', 'postcode': 18360, 'coordinates': {'latitude': '-8.0395', 'longitude': '-85.0086'}, 'timezone': {'offset': '+7:00', 'description': 'Bangkok, Hanoi, Jakarta'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 7031, 'name': 'Periférico Guerrero'}, 'city': 'Otatitlán', 'state': 'Jalisco', 'country': 'Mexico', 'postcode': 81676, 'coordinates': {'latitude': '-48.5085', 'longitude': '57.3244'}, 'timezone': {'offset': '-1:00', 'description': 'Azores, Cape Verde Islands'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 9818, 'name': 'شهید صابونچی'}, 'city': 'دزفول', 'state': 'آذربایجان غربی', 'country': 'Iran', 'postcode': 70744, 'coordinates': {'latitude': '-75.4308', 'longitude': '136.7734'}, 'timezone': {'offset': '+4:30', 'description': 'Kabul'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3372, 'name': 'Avenida de América'}, 'city': 'Oviedo', 'state': 'Castilla y León', 'country': 'Spain', 'postcode': 58197, 'coordinates': {'latitude': '-29.6745', 'longitude': '148.5676'}, 'timezone': {'offset': '+3:00', 'description': 'Baghdad, Riyadh, Moscow, St. Petersburg'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3049, 'name': 'Bahnhofstraße'}, 'city': 'Ilsenburg (Harz)', 'state': 'Nordrhein-Westfalen', 'country': 'Germany', 'postcode': 15627, 'coordinates': {'latitude': '6.0405', 'longitude': '9.5042'}, 'timezone': {'offset': '+5:00', 'description': 'Ekaterinburg, Islamabad, Karachi, Tashkent'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 915, 'name': 'Uhlandstraße'}, 'city': 'Breuberg', 'state': 'Niedersachsen', 'country': 'Germany', 'postcode': 65406, 'coordinates': {'latitude': '-56.6031', 'longitude': '113.0553'}, 'timezone': {'offset': '-9:00', 'description': 'Alaska'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3482, 'name': 'Voksenhagen'}, 'city': 'Ski', 'state': 'Hedmark', 'country': 'Norway', 'postcode': '6264', 'coordinates': {'latitude': '-46.7919', 'longitude': '174.7788'}, 'timezone': {'offset': '0:00', 'description': 'Western Europe Time, London, Lisbon, Casablanca'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 7442, 'name': 'Ronda de Toledo'}, 'city': 'Santander', 'state': 'Cantabria', 'country': 'Spain', 'postcode': 92327, 'coordinates': {'latitude': '3.7277', 'longitude': '86.4730'}, 'timezone': {'offset': '+9:30', 'description': 'Adelaide, Darwin'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 5872, 'name': "Rue de L'Église"}, 'city': 'Brienz (Be)', 'state': 'Luzern', 'country': 'Switzerland', 'postcode': 5499, 'coordinates': {'latitude': '-74.5340', 'longitude': '-65.4829'}, 'timezone': {'offset': '+10:00', 'description': 'Eastern Australia, Guam, Vladivostok'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 4804, 'name': 'Cours Charlemagne'}, 'city': 'Argenteuil', 'state': 'Ardèche', 'country': 'France', 'postcode': 24078, 'coordinates': {'latitude': '-20.1040', 'longitude': '121.7293'}, 'timezone': {'offset': '+5:30', 'description': 'Bombay, Calcutta, Madras, New Delhi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 5792, 'name': 'Esplanadi'}, 'city': 'Halsua', 'state': 'Finland Proper', 'country': 'Finland', 'postcode': 94862, 'coordinates': {'latitude': '-3.9206', 'longitude': '143.5935'}, 'timezone': {'offset': '-8:00', 'description': 'Pacific Time (US &amp; Canada)'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 3224, 'name': 'Følfodvej'}, 'city': 'Tisvilde', 'state': 'Midtjylland', 'country': 'Denmark', 'postcode': 42279, 'coordinates': {'latitude': '17.4054', 'longitude': '106.6216'}, 'timezone': {'offset': '+9:00', 'description': 'Tokyo, Seoul, Osaka, Sapporo, Yakutsk'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 80, 'name': 'Dalen'}, 'city': 'Kongsvinger', 'state': 'Syddanmark', 'country': 'Denmark', 'postcode': 71175, 'coordinates': {'latitude': '38.9448', 'longitude': '134.4551'}, 'timezone': {'offset': '+5:30', 'description': 'Bombay, Calcutta, Madras, New Delhi'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 4505, 'name': 'Friedhofstraße'}, 'city': 'Müllheim', 'state': 'Sachsen-Anhalt', 'country': 'Germany', 'postcode': 66395, 'coordinates': {'latitude': '-63.1077', 'longitude': '70.9325'}, 'timezone': {'offset': '+9:00', 'description': 'Tokyo, Seoul, Osaka, Sapporo, Yakutsk'}}</t>
+  </si>
+  <si>
+    <t>{'street': {'number': 9964, 'name': 'Victoria Road'}, 'city': 'Carlisle', 'state': 'Cambridgeshire', 'country': 'United Kingdom', 'postcode': 'DN8 9DE', 'coordinates': {'latitude': '50.3020', 'longitude': '124.0702'}, 'timezone': {'offset': '0:00', 'description': 'Western Europe Time, London, Lisbon, Casablanca'}}</t>
+  </si>
+  <si>
+    <t>camille.grewal@example.com</t>
+  </si>
+  <si>
+    <t>john.prieto@example.com</t>
+  </si>
+  <si>
+    <t>hilla.jutila@example.com</t>
+  </si>
+  <si>
+    <t>folkert.kampe@example.com</t>
+  </si>
+  <si>
+    <t>mikkel.larsen@example.com</t>
+  </si>
+  <si>
+    <t>velichar.asaula@example.com</t>
+  </si>
+  <si>
+    <t>marcus.gomez@example.com</t>
+  </si>
+  <si>
+    <t>hredhaan.shayana@example.com</t>
+  </si>
+  <si>
+    <t>chad.payne@example.com</t>
+  </si>
+  <si>
+    <t>taahira.prabhu@example.com</t>
+  </si>
+  <si>
+    <t>zeljka.abramovic@example.com</t>
+  </si>
+  <si>
+    <t>flavio.martinez@example.com</t>
+  </si>
+  <si>
+    <t>joan.wood@example.com</t>
+  </si>
+  <si>
+    <t>sietze.houtveen@example.com</t>
+  </si>
+  <si>
+    <t>jihad.derijcke@example.com</t>
+  </si>
+  <si>
+    <t>sanni.saari@example.com</t>
+  </si>
+  <si>
+    <t>albane.faure@example.com</t>
+  </si>
+  <si>
+    <t>ozsu.eksioglu@example.com</t>
+  </si>
+  <si>
+    <t>macit.evliyaoglu@example.com</t>
+  </si>
+  <si>
+    <t>arttu.tikkanen@example.com</t>
+  </si>
+  <si>
+    <t>artur.astrup@example.com</t>
+  </si>
+  <si>
+    <t>necati.dalkiran@example.com</t>
+  </si>
+  <si>
+    <t>naja.sorensen@example.com</t>
+  </si>
+  <si>
+    <t>kaylee.simmons@example.com</t>
+  </si>
+  <si>
+    <t>eliza.cook@example.com</t>
+  </si>
+  <si>
+    <t>pedro.moreno@example.com</t>
+  </si>
+  <si>
+    <t>britney.sullivan@example.com</t>
+  </si>
+  <si>
+    <t>brn.mrdy@example.com</t>
+  </si>
+  <si>
+    <t>anouschka.essink@example.com</t>
+  </si>
+  <si>
+    <t>timothy.guerin@example.com</t>
+  </si>
+  <si>
+    <t>mahika.kulkarni@example.com</t>
+  </si>
+  <si>
+    <t>diane.mills@example.com</t>
+  </si>
+  <si>
+    <t>dev.shetty@example.com</t>
+  </si>
+  <si>
+    <t>domorad.maksyuta@example.com</t>
+  </si>
+  <si>
+    <t>konsta.pietila@example.com</t>
+  </si>
+  <si>
+    <t>kasper.kotila@example.com</t>
+  </si>
+  <si>
+    <t>grimaldo.acosta@example.com</t>
+  </si>
+  <si>
+    <t>sm.aalyzdh@example.com</t>
+  </si>
+  <si>
+    <t>roberto.prieto@example.com</t>
+  </si>
+  <si>
+    <t>christian.strehl@example.com</t>
+  </si>
+  <si>
+    <t>kreszenz.puls@example.com</t>
+  </si>
+  <si>
+    <t>joseph.augestad@example.com</t>
+  </si>
+  <si>
+    <t>esteban.diez@example.com</t>
+  </si>
+  <si>
+    <t>valentino.martin@example.com</t>
+  </si>
+  <si>
+    <t>marine.louis@example.com</t>
+  </si>
+  <si>
+    <t>rasmus.wiitala@example.com</t>
+  </si>
+  <si>
+    <t>alexander.jensen@example.com</t>
+  </si>
+  <si>
+    <t>olivia.pedersen@example.com</t>
+  </si>
+  <si>
+    <t>geraldine.temme@example.com</t>
+  </si>
+  <si>
+    <t>andy.sutton@example.com</t>
+  </si>
+  <si>
+    <t>{'uuid': '467493fa-9d3c-49f3-8791-75a4198d083f', 'username': 'bigkoala402', 'password': 'moondog', 'salt': 'ZnUJ7paC', 'md5': 'b81b9b7ddd036f261ae388feede2b9cf', 'sha1': '8bfd2d5ed466f40453fbe8786580adf33948a10b', 'sha256': 'dc3d69f24dc724c433ab322e802ebe65e1dbc4d928e8be21bae7f5b9383f0a87'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '75b711be-6c34-4803-8e48-37f4284ac579', 'username': 'purplepanda115', 'password': 'never', 'salt': 'uQVlgAiz', 'md5': 'bebf9d4a34b3ec6c9f6dc8c18d7cdbf2', 'sha1': '6a71f618cfa7ffebd497b549f845d4f52fae4141', 'sha256': '0c143a465ee313f4a4d33dd5b5172395ddec61996ace822f69bde0b7a0447741'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'd0419b03-f7fb-45bc-b162-6aab05770e09', 'username': 'happyostrich650', 'password': 'roger', 'salt': 'F3aenqMe', 'md5': '0d6de9ece6772224c55a60f9d0fbf4d2', 'sha1': 'e29b792494da4eb980af131bc9ebafacb7d84ec7', 'sha256': 'e690e9acc838a3639a6be37bef5197dfacab6fb2150787e6bdd416394e97e04c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '0e4ed62c-de64-488e-8d10-5f437728f798', 'username': 'heavyostrich386', 'password': 'sprite', 'salt': 'IN3qHSFd', 'md5': '86370bc7b7e83740696ea8b6819e633e', 'sha1': '40dc027f6d6aa7e48cc6f5e5f3332af2d8d0e1ca', 'sha256': 'f5cd10ead0094208bb8aef506779a45e552e59e933ae6bc4645e7bc972695492'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '13491c6a-95db-4a63-b681-9598da68bcc3', 'username': 'biggoose950', 'password': 'blackcat', 'salt': 'eYl3jQ7R', 'md5': 'cb9a0c4bf9b586f662c68786cb1509aa', 'sha1': '1d9b14b59e90ee9022b497a89779a1cba7919dc2', 'sha256': 'fd120bbe580cde26d94d1e52aa97125e979a4d50a9a814afd6a532625da1e66c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '6b7c4e78-ae48-4b80-97b5-84e878a82d4b', 'username': 'beautifulswan830', 'password': 'woohoo', 'salt': 'svzBmMGq', 'md5': '5ed9e34af359d0225d1bf0cc26ffff1f', 'sha1': 'd85971cd5f5a5bece7cdbe1172d7d7683318dc94', 'sha256': '25ebcd410641a0340aa6660e1307bb13a37616a7a0d6ed36d8755222295a3c1e'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'c9fe0334-4947-4979-8e4d-41c2e2bfb215', 'username': 'blackzebra681', 'password': 'poiu', 'salt': 'bWl7gppu', 'md5': 'f72cb84b62a74145c2f6244a4f2709af', 'sha1': 'deb3a0d3a1e32ce0fc5dfcf0b28cc70f53dcd124', 'sha256': 'db4c51ac4ab1289b8635095f9f61d7a1a8d427c5610e391952cc858ed1ff504f'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '82a3d041-1479-4a6c-b68b-f0fe120b31a0', 'username': 'smallbutterfly227', 'password': 'bishop', 'salt': 'I9BKvaVU', 'md5': 'eb9e5344d0311fc6f81bca7809b078bb', 'sha1': 'effe2777b03807baf6c15a97c5fd7d9f90c69866', 'sha256': '3b4a5cad7cfaacab15a37af68d7f7c70fe3837d97d5dfca1d0984a1fb2b78bd2'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '5673984f-0ecf-49c7-aec6-b26cfa16c69f', 'username': 'goldenswan719', 'password': 'patton', 'salt': '5wURNzr2', 'md5': 'cb5259c50ad9635fdf07e7f7d227b64a', 'sha1': '672666a0a76b34d29182a08e40db8a6a6fbb66b9', 'sha256': 'fae01932d99da19e0d563011d53ccfc64dda1b625ed635639c43e52586339888'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '496ba590-c2f1-4435-b2fa-f1b1baff0902', 'username': 'greenostrich351', 'password': 'ajax', 'salt': 'CbibnK1L', 'md5': '6613264e0b17fdfa8b4f6848e3221f4f', 'sha1': 'a5fcfe4b8c31b3cd58912405b4f97374fa9e7995', 'sha256': 'b645e89859d6b39c146156aa8a0217d24ad2fda76430b8b2fbefc0263aa3c083'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'd97e48e5-5a3e-49e8-bc78-47d5312538f7', 'username': 'brownlion842', 'password': 'playoffs', 'salt': 'AJSvlvlY', 'md5': 'ea1fa6988bf42ead09af93c73d9cc029', 'sha1': 'b9eb860ffcffb4b93848b7915567a845e3eccf07', 'sha256': '8454d89bd489d644450f7bbeea15faea77ebd8bebb7958322025aa4822ee53f5'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '0cc2c128-bb01-4ce4-8d58-0985cd21e678', 'username': 'tinybutterfly648', 'password': 'ultra', 'salt': '4ESohVYh', 'md5': 'c4d3be041819a0725043b7bec5f8dd6a', 'sha1': 'eeec6e144801276f38069bdd321080fe2bb754d5', 'sha256': '261819060289e4750ab672a7d9a8bf6ce5daf226aed5ad2bcbb34108447dae9c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'bdbe8f67-5f42-4ac4-b754-e5cba64da4eb', 'username': 'goldenbear427', 'password': 'techno', 'salt': 'zLB6svaS', 'md5': '414bee4d2cf6fcf4e0965569c1a1ad6a', 'sha1': 'e7ea1f10506249e81bdedc1391dcbb0ccfe9508b', 'sha256': 'd1460b49ffdb1b3daace4f262d39e364ab5369ecfdd7394f4d165e31edf4bafb'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'eb43644d-da6e-448c-a408-40b9c50f2b89', 'username': 'brownmeercat644', 'password': 'hubert', 'salt': 'RZZgSVWX', 'md5': 'db4e684831a92d917085dd8460e07fe7', 'sha1': 'b8748be7fab2b2cabcd58dc7bc43755932e56aef', 'sha256': '95d9ce1b5dd0ed6ae7f3de763911178329a5243f32e6337d64efd4dcf649d64a'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'aa0eaa21-7020-439d-915a-4436a8f891b5', 'username': 'happydog433', 'password': 'nicole', 'salt': 'N3zJK8uy', 'md5': 'ff5ebdb63c1208ee5bcd5c5f59e167a7', 'sha1': '48f5011b89fc47e162f704a9c38812ca9a7360db', 'sha256': 'd56c3045d5bb5420adc1f633344603bd181a05aa19230d547dd398f201d03fe3'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '55f8f9da-1f1e-49c7-a472-a33dcf0217b0', 'username': 'blackostrich893', 'password': 'neng', 'salt': 'oWkdQ0Fr', 'md5': '5a1cfa0400163e6e94031f2471346cb7', 'sha1': 'c9cb23d87d3da5d96233621334a905a3b0bdc451', 'sha256': '6f9bcd37b0a62536af2952d1964842d45e4afdf19f9aa930153809f0c3bc869c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '69b5252c-b38d-4afc-aa37-22b4f09869e0', 'username': 'tinyladybug654', 'password': 'river', 'salt': 'm7TQ4aUd', 'md5': '989b577e9d32594be54d39d612bfc46f', 'sha1': '125497fab4d2d7a208a402a93f2958c95b3ff57d', 'sha256': '20cf9bafbbe6e93fa8f8ee71cf798f3a0936a73bf4d23373998e13cea0e6c347'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'a3724b21-a748-4432-870e-7b31cc1ee196', 'username': 'whitesnake302', 'password': 'bunnies', 'salt': 'kQU3vU2E', 'md5': '7b3d3259a88b850f9c0b256389aa16d0', 'sha1': '3f602779d65fbf1ce8d2203fd1debfc7b3c5a684', 'sha256': 'c458d71fcfaff684cde93184352f69897650862d9d2376489649c399397110f5'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '32bae24b-abd6-493f-8812-1f187134cc0d', 'username': 'blackzebra492', 'password': 'fireblad', 'salt': 'bKeic7yz', 'md5': '80de5f5b2d61b848aca0987ad917918a', 'sha1': '0c8cdc6528e7d2eb164234aeca6ee7d6dfe69b10', 'sha256': 'cd7c0cad616f57f8981f0d35bc036d43be546b389e8b6b2bc2378f34e04ea4cf'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '12026566-97e4-450b-a505-9e48e229ab32', 'username': 'redzebra545', 'password': 'rudy', 'salt': 'TYh69z8n', 'md5': 'bbe14cf568fbab850cb718dbe4e750e3', 'sha1': 'd5893b4e4e63d5d4a7030beee78d6140636eaff0', 'sha256': '4e262c25ce4192826c5707ce2c8e75698791a0c9eb5112b91295679792c35504'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '6fcc4f26-555c-45a0-ab4d-59b3c26bdd1b', 'username': 'sadcat156', 'password': 'catwoman', 'salt': 'Ymo01480', 'md5': '5f9f3ee3ebf46d73d2f38e9045e9d9f4', 'sha1': 'dcaec2a29f041a669948d033aa131b29252e35c6', 'sha256': 'f04b9a47db37870b12ab669e2f466a0ed9cbf065af2bfbf44e80a6b6faf5043a'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'c7399a9d-e44d-45c1-9012-793a59496ff0', 'username': 'bluemouse993', 'password': 'youknow', 'salt': 'xGlo3pVq', 'md5': 'c7f9566d57ff93561a4f1735de28857f', 'sha1': '90d9cdbdcc60d8af813941c668a83003c4c8d2d8', 'sha256': '77a544f7879d954594131abf7413640f3434edd02c4ef71f289f057b276f5052'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '451c29c4-bf4d-488d-8aa7-27d36b54ad69', 'username': 'bluegoose484', 'password': 'sergeant', 'salt': '3fxsO9wD', 'md5': 'b9e16f7302c6e56d6670fc59e6b3346b', 'sha1': '78ad0ccc0438ce81478564c0046bdc0e6e66c0bd', 'sha256': '6508cdb2a2340de8f1f105719ddb9315960813ac3928443af0ae4db2e61c9c6c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '56a625db-1ce8-4386-8333-8aeb11773d12', 'username': 'purplepeacock510', 'password': 'homerj', 'salt': 'xPoObxVS', 'md5': 'f5588307ed5fa60da123098b39426161', 'sha1': 'aa3c0b83df7dbfd2ba9d74e9f32cb44016bf5b7d', 'sha256': 'eea1176c5dad20b443acacb456c55389d6ea23683eef1624def048a30cbe2f96'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'bb1884da-4ccf-481e-af5d-dc2e0405b3c2', 'username': 'yellowgorilla896', 'password': 'killjoy', 'salt': 'pF2G1pbe', 'md5': '6d6612028955c1d4249eb4418fbf4d39', 'sha1': 'f634c4c17847b81c1b900e2a0bf85f422606319a', 'sha256': '7be29646e63e05a920c045530470e6d3ea2e27b541a0181999f8283e0d02e406'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'f84a2ae8-46ce-491e-b1f9-e9fb7132e6c0', 'username': 'lazygorilla981', 'password': 'accord', 'salt': 'SzRAe9VR', 'md5': 'ed1e27e700b56712ddd1554e75a5ca80', 'sha1': '0987590c64bd292f6ac008fdeb558f3b1b937369', 'sha256': '45b241a06af4bb8c8fd83272626a13949490df060063c1bf165c19e87fd26f49'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '0417803f-bae0-4c0c-a798-dd2ec5295813', 'username': 'bluegoose203', 'password': '123456789', 'salt': 'RYP5D4os', 'md5': 'a5f8f7d31bcf93028eb0c0cb6c2bb64d', 'sha1': '155a5c07645788906933645c3a46e586c22dceaf', 'sha256': 'ea32c39913c22fb262277fd228b8bb953b64323cc2f93912562b9cf50ed4b7ec'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'aa9b234d-636e-42ed-856f-9cd792ace5bd', 'username': 'purplegoose920', 'password': 'pebbles', 'salt': 'kogER25f', 'md5': 'afc34d86ce72b521a782333e78e73b23', 'sha1': '638566541fcbf72c7717612b361553798781276e', 'sha256': 'be22b96af8d3b1bd91e286ce2ed4d354a848b5d174ee300665f3fbf9b86a938a'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'ed3dd508-480f-4a82-8bca-f8e3a89e3a6a', 'username': 'browncat727', 'password': 'xxxxxxx', 'salt': '4F0a0kkF', 'md5': 'bdac5269bbc4c4de321744e61e6935c3', 'sha1': '95beeee00c1d15b612a93ad5baed409cf052a29a', 'sha256': '29957185977d7a0ed3a4f60feafdf79949245f6b794b0d86e2865b7b192c9cf1'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '63009120-f665-42f6-b93b-f5fabaf35894', 'username': 'lazyrabbit425', 'password': 'carlos1', 'salt': '9ug5oNoB', 'md5': '773e969d0144c566185e4679ca831ab0', 'sha1': 'dda97dd8e95b504781d56f35c05d08cf889a1601', 'sha256': '364e3c698534d502990032465d01de2b9168210432b3ef8681bf0e1ad2cc89a9'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '94b52521-e4a9-458b-bc1e-f6f3caf71f63', 'username': 'bigswan669', 'password': 'fearless', 'salt': 'R5u5943h', 'md5': '7ac5a54ac666e66785989c4d53278fa4', 'sha1': '34c94dab036bf5c42542887ad3656b1732dd26ec', 'sha256': '5cae4450b1e12428220680f98e88ff2b041e2121272e9c4bffd9733f7102073d'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '99ca500a-62b3-40f1-b710-00dd9ed33fde', 'username': 'orangepeacock617', 'password': 'adams', 'salt': 'h9BV2N1m', 'md5': '39b6ae7621b490f81837b4b4647dd0d7', 'sha1': '90aef39c0618771d17876bd0dff9c2debf820f9c', 'sha256': '85bbb0cb4591ad01b981c9971f084c71adea1a781106248e03c8c2d8bd26ec24'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '3b21fe3c-7c45-4015-82ca-199056de0b45', 'username': 'bluebear618', 'password': 'joel', 'salt': 'BhS8PXNJ', 'md5': '85c9d778e143e4c46694f31f798a39f2', 'sha1': '4a27a8da016b6ef22051aba683f2677dd2d903bc', 'sha256': '262d59ded95ba2e78958934540522a0f7e68e4fbdf76d5ddbf24c2a4ab7ec319'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'd4b5833e-4c4f-43af-91f8-0e44896d2d1f', 'username': 'blackwolf990', 'password': 'homepage', 'salt': 'XyC9eed4', 'md5': 'fe7a195640d4644a0a77e548d6ea481d', 'sha1': 'b13118f17aeca5a9f1261c0030cf9a27eff82799', 'sha256': 'a48de1350e28fd82e73442112db7e2cb0e54b833ca935d8f4aefd77dbc53608c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'c5add4ab-e68d-483f-8d15-4af57c356581', 'username': 'bluemeercat840', 'password': 'huskies', 'salt': 'fRV2OH9k', 'md5': '994936e34673a53bb4690b21c5ec9b14', 'sha1': 'e072842cac2a11bad6b7cd56484fa711ff0bfbcf', 'sha256': '7355dc204b43b5e6ef559e9749dd2db3921c88f4f74640eed7c0c8fbf472ac28'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '445f3294-be92-4139-aab0-b8d2d4c17a6a', 'username': 'brownbear874', 'password': 'mang', 'salt': 'yIvGBk1d', 'md5': 'ca77ec11809c501cd12b9cb42ba2f37b', 'sha1': '92ac6d04da3a3fdad84f9813c34f45c5b1e0a711', 'sha256': 'be4c2c6183c3526c4411486e2965c85efa6e714660c62c79371d0a9f92fb2b1b'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '06cb7ac7-e167-490a-90ef-a36616807c51', 'username': 'happylion167', 'password': 'uranus', 'salt': 'SaIwv6KG', 'md5': '4c2bf6ef5c8cf037281a9690509887a5', 'sha1': '665421b6af38cb1462c3225927646f98c96668ca', 'sha256': 'ef9354f6468b62b6784eb2e66ee3f7c37f6fe22e637d0191d605d3f2c3e5d406'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'b04347c4-2826-4f2c-a38d-8d4018f6ef58', 'username': 'silverkoala878', 'password': 'wolverine', 'salt': 'gGkjkNKA', 'md5': 'bbd4c28ef8d6b5d30d17af9e6c6b338d', 'sha1': '15acd121c9daf4547ed574710b6a0c8b267d7245', 'sha256': 'aacfa2a8d40b1819479cff80cf984ad38e6bebc86cffce2aa4a4975ec2fead64'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '8e0a5953-027b-4d76-b2ff-2668b5a3dc6f', 'username': 'tinyswan448', 'password': 'delmar', 'salt': 'RDr7XCBY', 'md5': 'a888f55fc62aed9cf506a0539828d268', 'sha1': '81b9b8cecd4499a382484fce8e254bb3351814d0', 'sha256': 'c9a468a7ac3ace3d66fb281d26868234d612ef8f0adb237b029ba3e61d430581'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'bd6a8763-6ff9-4107-b019-d9afc98066e9', 'username': 'redtiger692', 'password': 'kicker', 'salt': 'J5gU9LmZ', 'md5': '12837207f62665c79a4cfdfd0a1d91a2', 'sha1': 'd879f12e40d7781c640058ec015bd956c84ce46c', 'sha256': '8e5cd71ae8eaa304a6ecec8b05a94a4cf1ff29ead7295e7849ee251f915243a9'}</t>
+  </si>
+  <si>
+    <t>{'uuid': 'bc116b69-9cc3-4cac-9532-c236592c0037', 'username': 'crazyleopard158', 'password': 'surfer1', 'salt': 'l3SlnDRE', 'md5': '5ccbf49034b47899a63e40888ed2b74f', 'sha1': 'e3669f3ae0686f4849d06540fe664226436926e2', 'sha256': 'c02e9d0a96050b6440f301d31fe4e68783e52f22312b6167b0f63491c96a6dfa'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '61cb54ea-93a9-4168-880a-346ca77ae0e4', 'username': 'whitefish374', 'password': 'zodiac', 'salt': 'zpXTwrJN', 'md5': '09997a19bfc22a60a8f8db8f02e59eea', 'sha1': '3f872329dbd5fd345adfce3f191631a03a5e59f6', 'sha256': '5706bf5c621e1b87ba0141c94c06b5e892b11f7d56495a2d04a859a849727b70'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '967b5e8e-547d-4243-a81e-334712e68055', 'username': 'bigswan765', 'password': 'jackson1', 'salt': '8yiwKL5m', 'md5': '404ef0b54ffc97ed0bc6d1aefa8993b4', 'sha1': 'e8752b4e9531514411163b2b91af44ffb0bfdaf5', 'sha256': '274dd789ac8a8b32dfa0ac00817914ba551e85f1b1ade616590ba3f9fe5612bf'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '5d9f0008-3b6b-461f-8b18-6ff76ef11628', 'username': 'lazyzebra605', 'password': 'vancouve', 'salt': 'TsZvb8sx', 'md5': 'e4cc059a2933a6a085b89392dc8ea90b', 'sha1': 'db57c5d7f0e7042b74efc2d685cb5954afa37248', 'sha256': '097132fd567168db7c3e4438a86629cd74a37e9a696236c7a34da94b19e55a5e'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '03f2b31b-5dc5-42eb-8792-e3013ccbbdae', 'username': 'redelephant426', 'password': 'xxxxx', 'salt': 'VgXi3L2q', 'md5': '3a3d14cd3e3a522759363f7ed143654d', 'sha1': 'aec84b73eade4456f2e21a3e0329420589b839b1', 'sha256': 'c7bd5d7d826061eb82adf6b9a9f3fc9c6f63da1298c50c66c92e4e814cd21fb8'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '34026111-d7e2-41ea-8cc8-a3a8a94b85e0', 'username': 'blackfish861', 'password': 'stick', 'salt': 'lgUrCreI', 'md5': 'c7a8a44d127ca8c9fdb12d471141bed4', 'sha1': 'a58ca64e3e9b0a0ef1fb156d210ef5b5b79fcabd', 'sha256': 'ed82a0f7e97eb8ef154d45cee5f62ddd6b81476306877a1b0b8f007d89ebed4c'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '397e4946-4231-47bd-a1a9-5e0a655dcb46', 'username': 'smallbird556', 'password': 'trumpet', 'salt': 'ybH5RSo0', 'md5': '34a6fe61db753808a3c7b3bd8ae4514d', 'sha1': 'c0b3e340bd5f79a7ef932c5af5a85f47a0b18ff0', 'sha256': '1abf09a8a3a7a4a380d4a1dad4e466c740a4b4a2e2a28a80b0e76c50b602d91b'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '8d45e1f2-acba-413b-9b24-98e8f0f228f3', 'username': 'bluekoala742', 'password': 'fields', 'salt': 'xMu363Ck', 'md5': '1fc174f870d20d894a643c541cbb92b7', 'sha1': 'f2910c0b84498958ba2ada8451e693850a0f8f41', 'sha256': '02df7dce118932ed04369caf46ec6f3aa7693cbac65902e481672cd1de721929'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '70b77c75-df44-48a5-8c32-12b150c3a0e6', 'username': 'happyladybug460', 'password': 'poetry', 'salt': 'yhPopjhx', 'md5': 'af1b5110db85def84535392416e80472', 'sha1': '5aeaa763cdee495cb018073276e91bd86cbec794', 'sha256': '216981b63d52483cc5c7928948cb5595eab1210a7ac9567b99ff1ac1143762a7'}</t>
+  </si>
+  <si>
+    <t>{'uuid': '985c9f5f-6192-47e6-84a5-71f51e3a3738', 'username': 'tinypeacock965', 'password': '102938', 'salt': 'Ihk7phYD', 'md5': '305c3f2cb6fc95dbceb3976241edc836', 'sha1': '49cc442ae71c691ca1c7b4fb0ad04ed5d64ae48f', 'sha256': '159004f812d836cd87cf7d98d5401d7878a36c030532dce805324c12899e39a6'}</t>
+  </si>
+  <si>
+    <t>{'date': '1981-10-30T18:51:13.652Z', 'age': 43}</t>
+  </si>
+  <si>
+    <t>{'date': '1964-08-21T03:32:25.926Z', 'age': 60}</t>
+  </si>
+  <si>
+    <t>{'date': '1964-07-28T12:37:47.338Z', 'age': 60}</t>
+  </si>
+  <si>
+    <t>{'date': '1976-05-07T06:49:40.824Z', 'age': 48}</t>
+  </si>
+  <si>
+    <t>{'date': '1997-06-09T11:41:21.048Z', 'age': 27}</t>
+  </si>
+  <si>
+    <t>{'date': '1998-05-01T17:50:34.268Z', 'age': 26}</t>
+  </si>
+  <si>
+    <t>{'date': '2000-09-13T19:32:46.304Z', 'age': 24}</t>
+  </si>
+  <si>
+    <t>{'date': '1974-08-01T04:30:31.783Z', 'age': 50}</t>
+  </si>
+  <si>
+    <t>{'date': '1980-01-17T12:57:45.961Z', 'age': 45}</t>
+  </si>
+  <si>
+    <t>{'date': '1959-03-15T14:41:13.736Z', 'age': 65}</t>
+  </si>
+  <si>
+    <t>{'date': '1983-09-01T06:27:01.836Z', 'age': 41}</t>
+  </si>
+  <si>
+    <t>{'date': '1965-12-26T14:13:05.756Z', 'age': 59}</t>
+  </si>
+  <si>
+    <t>{'date': '1979-09-12T13:09:45.928Z', 'age': 45}</t>
+  </si>
+  <si>
+    <t>{'date': '1982-12-01T14:16:38.192Z', 'age': 42}</t>
+  </si>
+  <si>
+    <t>{'date': '1993-04-26T14:43:38.937Z', 'age': 31}</t>
+  </si>
+  <si>
+    <t>{'date': '1976-02-22T16:32:49.251Z', 'age': 49}</t>
+  </si>
+  <si>
+    <t>{'date': '1973-10-30T00:03:54.522Z', 'age': 51}</t>
+  </si>
+  <si>
+    <t>{'date': '1992-09-12T19:19:48.944Z', 'age': 32}</t>
+  </si>
+  <si>
+    <t>{'date': '1972-05-15T22:13:49.189Z', 'age': 52}</t>
+  </si>
+  <si>
+    <t>{'date': '1948-08-25T18:11:58.429Z', 'age': 76}</t>
+  </si>
+  <si>
+    <t>{'date': '1998-06-08T19:39:15.373Z', 'age': 26}</t>
+  </si>
+  <si>
+    <t>{'date': '1965-06-22T23:26:28.691Z', 'age': 59}</t>
+  </si>
+  <si>
+    <t>{'date': '1963-12-16T22:24:52.244Z', 'age': 61}</t>
+  </si>
+  <si>
+    <t>{'date': '1996-09-30T19:54:33.851Z', 'age': 28}</t>
+  </si>
+  <si>
+    <t>{'date': '1999-03-12T23:01:32.945Z', 'age': 26}</t>
+  </si>
+  <si>
+    <t>{'date': '1997-12-17T00:21:52.198Z', 'age': 27}</t>
+  </si>
+  <si>
+    <t>{'date': '1950-05-20T23:21:28.387Z', 'age': 74}</t>
+  </si>
+  <si>
+    <t>{'date': '1944-09-26T23:52:43.447Z', 'age': 80}</t>
+  </si>
+  <si>
+    <t>{'date': '1970-05-18T23:05:09.687Z', 'age': 54}</t>
+  </si>
+  <si>
+    <t>{'date': '1958-11-14T20:06:54.992Z', 'age': 66}</t>
+  </si>
+  <si>
+    <t>{'date': '1954-05-22T21:03:12.496Z', 'age': 70}</t>
+  </si>
+  <si>
+    <t>{'date': '1947-08-09T12:30:06.277Z', 'age': 77}</t>
+  </si>
+  <si>
+    <t>{'date': '1947-08-23T14:27:04.808Z', 'age': 77}</t>
+  </si>
+  <si>
+    <t>{'date': '1946-08-19T05:01:03.919Z', 'age': 78}</t>
+  </si>
+  <si>
+    <t>{'date': '1982-11-22T16:54:30.725Z', 'age': 42}</t>
+  </si>
+  <si>
+    <t>{'date': '1957-01-26T23:59:51.298Z', 'age': 68}</t>
+  </si>
+  <si>
+    <t>{'date': '1981-02-20T07:48:17.643Z', 'age': 44}</t>
+  </si>
+  <si>
+    <t>{'date': '1995-04-04T19:28:34.714Z', 'age': 29}</t>
+  </si>
+  <si>
+    <t>{'date': '1945-05-30T13:28:55.753Z', 'age': 79}</t>
+  </si>
+  <si>
+    <t>{'date': '1992-08-30T20:58:43.811Z', 'age': 32}</t>
+  </si>
+  <si>
+    <t>{'date': '1950-07-28T06:21:47.422Z', 'age': 74}</t>
+  </si>
+  <si>
+    <t>{'date': '1954-02-19T07:55:49.294Z', 'age': 71}</t>
+  </si>
+  <si>
+    <t>{'date': '1987-10-06T19:38:13.385Z', 'age': 37}</t>
+  </si>
+  <si>
+    <t>{'date': '1998-02-09T05:59:04.007Z', 'age': 27}</t>
+  </si>
+  <si>
+    <t>{'date': '1992-05-12T17:30:31.991Z', 'age': 32}</t>
+  </si>
+  <si>
+    <t>{'date': '1974-08-08T08:04:24.995Z', 'age': 50}</t>
+  </si>
+  <si>
+    <t>{'date': '1979-02-17T01:58:28.236Z', 'age': 46}</t>
+  </si>
+  <si>
+    <t>{'date': '1991-12-21T18:57:12.928Z', 'age': 33}</t>
+  </si>
+  <si>
+    <t>{'date': '1962-12-19T22:34:50.903Z', 'age': 62}</t>
+  </si>
+  <si>
+    <t>{'date': '1990-09-30T08:25:14.364Z', 'age': 34}</t>
+  </si>
+  <si>
+    <t>{'date': '2007-12-08T13:28:07.198Z', 'age': 17}</t>
+  </si>
+  <si>
+    <t>{'date': '2011-11-14T20:42:52.607Z', 'age': 13}</t>
+  </si>
+  <si>
+    <t>{'date': '2018-09-16T04:54:19.563Z', 'age': 6}</t>
+  </si>
+  <si>
+    <t>{'date': '2007-11-13T20:45:07.346Z', 'age': 17}</t>
+  </si>
+  <si>
+    <t>{'date': '2013-03-11T07:21:17.782Z', 'age': 12}</t>
+  </si>
+  <si>
+    <t>{'date': '2014-04-02T18:51:09.223Z', 'age': 10}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-01-15T20:05:08.074Z', 'age': 21}</t>
+  </si>
+  <si>
+    <t>{'date': '2017-01-20T14:01:06.886Z', 'age': 8}</t>
+  </si>
+  <si>
+    <t>{'date': '2018-10-17T13:57:27.604Z', 'age': 6}</t>
+  </si>
+  <si>
+    <t>{'date': '2007-01-11T16:15:24.101Z', 'age': 18}</t>
+  </si>
+  <si>
+    <t>{'date': '2021-11-21T09:54:15.901Z', 'age': 3}</t>
+  </si>
+  <si>
+    <t>{'date': '2016-02-22T20:19:39.725Z', 'age': 9}</t>
+  </si>
+  <si>
+    <t>{'date': '2019-12-05T02:40:54.009Z', 'age': 5}</t>
+  </si>
+  <si>
+    <t>{'date': '2014-10-13T22:20:45.015Z', 'age': 10}</t>
+  </si>
+  <si>
+    <t>{'date': '2016-04-05T07:57:39.097Z', 'age': 8}</t>
+  </si>
+  <si>
+    <t>{'date': '2007-12-05T20:59:15.564Z', 'age': 17}</t>
+  </si>
+  <si>
+    <t>{'date': '2019-08-14T04:14:19.726Z', 'age': 5}</t>
+  </si>
+  <si>
+    <t>{'date': '2019-10-31T08:06:07.815Z', 'age': 5}</t>
+  </si>
+  <si>
+    <t>{'date': '2014-06-08T08:52:12.703Z', 'age': 10}</t>
+  </si>
+  <si>
+    <t>{'date': '2022-03-11T21:37:36.046Z', 'age': 3}</t>
+  </si>
+  <si>
+    <t>{'date': '2019-12-23T17:10:55.350Z', 'age': 5}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-07-11T21:26:47.021Z', 'age': 20}</t>
+  </si>
+  <si>
+    <t>{'date': '2013-06-23T13:05:16.977Z', 'age': 11}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-07-23T20:52:19.066Z', 'age': 20}</t>
+  </si>
+  <si>
+    <t>{'date': '2008-11-22T09:51:24.321Z', 'age': 16}</t>
+  </si>
+  <si>
+    <t>{'date': '2011-04-10T17:57:41.216Z', 'age': 13}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-05-21T19:09:38.871Z', 'age': 20}</t>
+  </si>
+  <si>
+    <t>{'date': '2015-12-10T16:07:40.389Z', 'age': 9}</t>
+  </si>
+  <si>
+    <t>{'date': '2002-12-22T20:36:43.270Z', 'age': 22}</t>
+  </si>
+  <si>
+    <t>{'date': '2011-09-19T15:26:52.916Z', 'age': 13}</t>
+  </si>
+  <si>
+    <t>{'date': '2012-01-27T09:45:30.947Z', 'age': 13}</t>
+  </si>
+  <si>
+    <t>{'date': '2002-12-18T10:09:14.801Z', 'age': 22}</t>
+  </si>
+  <si>
+    <t>{'date': '2003-11-29T02:44:29.315Z', 'age': 21}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-01-06T06:46:36.480Z', 'age': 21}</t>
+  </si>
+  <si>
+    <t>{'date': '2002-09-17T17:59:57.396Z', 'age': 22}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-04-19T07:21:47.739Z', 'age': 20}</t>
+  </si>
+  <si>
+    <t>{'date': '2008-10-21T09:45:02.161Z', 'age': 16}</t>
+  </si>
+  <si>
+    <t>{'date': '2003-05-14T22:26:46.573Z', 'age': 21}</t>
+  </si>
+  <si>
+    <t>{'date': '2006-05-10T23:00:25.716Z', 'age': 18}</t>
+  </si>
+  <si>
+    <t>{'date': '2002-09-25T12:06:01.175Z', 'age': 22}</t>
+  </si>
+  <si>
+    <t>{'date': '2006-03-29T17:13:17.204Z', 'age': 18}</t>
+  </si>
+  <si>
+    <t>{'date': '2003-06-18T23:34:46.564Z', 'age': 21}</t>
+  </si>
+  <si>
+    <t>{'date': '2007-01-07T03:36:59.877Z', 'age': 18}</t>
+  </si>
+  <si>
+    <t>{'date': '2020-01-11T07:41:59.244Z', 'age': 5}</t>
+  </si>
+  <si>
+    <t>{'date': '2005-09-23T09:05:03.822Z', 'age': 19}</t>
+  </si>
+  <si>
+    <t>{'date': '2009-03-27T17:34:52.582Z', 'age': 15}</t>
+  </si>
+  <si>
+    <t>{'date': '2002-04-04T11:10:46.952Z', 'age': 22}</t>
+  </si>
+  <si>
+    <t>{'date': '2006-03-18T15:52:06.180Z', 'age': 18}</t>
+  </si>
+  <si>
+    <t>{'date': '2004-09-13T04:11:19.060Z', 'age': 20}</t>
+  </si>
+  <si>
+    <t>{'date': '2010-05-18T20:17:26.472Z', 'age': 14}</t>
+  </si>
+  <si>
+    <t>P58 A52-9684</t>
+  </si>
+  <si>
+    <t>909-057-109</t>
+  </si>
+  <si>
+    <t>07-429-350</t>
+  </si>
+  <si>
+    <t>0545-6518279</t>
+  </si>
+  <si>
+    <t>62802012</t>
+  </si>
+  <si>
+    <t>(096) X97-3613</t>
+  </si>
+  <si>
+    <t>(276) 990-5016</t>
+  </si>
+  <si>
+    <t>7079228350</t>
+  </si>
+  <si>
+    <t>(722) 522-8864</t>
+  </si>
+  <si>
+    <t>8595506355</t>
+  </si>
+  <si>
+    <t>036-2411-729</t>
+  </si>
+  <si>
+    <t>(621) 769 1276</t>
+  </si>
+  <si>
+    <t>05-9115-6621</t>
+  </si>
+  <si>
+    <t>(0014) 526352</t>
+  </si>
+  <si>
+    <t>(088) 5154212</t>
+  </si>
+  <si>
+    <t>08-960-991</t>
+  </si>
+  <si>
+    <t>01-97-31-63-51</t>
+  </si>
+  <si>
+    <t>(053)-509-6512</t>
+  </si>
+  <si>
+    <t>(793)-967-6923</t>
+  </si>
+  <si>
+    <t>03-216-576</t>
+  </si>
+  <si>
+    <t>74823013</t>
+  </si>
+  <si>
+    <t>(508)-225-5381</t>
+  </si>
+  <si>
+    <t>42223921</t>
+  </si>
+  <si>
+    <t>04-5068-0996</t>
+  </si>
+  <si>
+    <t>016977 0474</t>
+  </si>
+  <si>
+    <t>999-003-153</t>
+  </si>
+  <si>
+    <t>041-910-9677</t>
+  </si>
+  <si>
+    <t>033-88723785</t>
+  </si>
+  <si>
+    <t>(0563) 272111</t>
+  </si>
+  <si>
+    <t>076 912 26 84</t>
+  </si>
+  <si>
+    <t>7132173617</t>
+  </si>
+  <si>
+    <t>019467 48898</t>
+  </si>
+  <si>
+    <t>8493290151</t>
+  </si>
+  <si>
+    <t>(068) P00-7698</t>
+  </si>
+  <si>
+    <t>06-117-864</t>
+  </si>
+  <si>
+    <t>07-455-702</t>
+  </si>
+  <si>
+    <t>(681) 582 4033</t>
+  </si>
+  <si>
+    <t>024-86787333</t>
+  </si>
+  <si>
+    <t>920-019-669</t>
+  </si>
+  <si>
+    <t>0902-7109295</t>
+  </si>
+  <si>
+    <t>0416-2908387</t>
+  </si>
+  <si>
+    <t>78756470</t>
+  </si>
+  <si>
+    <t>995-007-535</t>
+  </si>
+  <si>
+    <t>078 050 10 87</t>
+  </si>
+  <si>
+    <t>03-84-17-57-95</t>
+  </si>
+  <si>
+    <t>07-019-752</t>
+  </si>
+  <si>
+    <t>34402408</t>
+  </si>
+  <si>
+    <t>74133084</t>
+  </si>
+  <si>
+    <t>0781-1011133</t>
+  </si>
+  <si>
+    <t>016974 26525</t>
+  </si>
+  <si>
+    <t>J74 B17-8472</t>
+  </si>
+  <si>
+    <t>628-841-789</t>
+  </si>
+  <si>
+    <t>045-355-86-35</t>
+  </si>
+  <si>
+    <t>0176-7699022</t>
+  </si>
+  <si>
+    <t>46647445</t>
+  </si>
+  <si>
+    <t>(098) Z60-4745</t>
+  </si>
+  <si>
+    <t>(885) 593-5833</t>
+  </si>
+  <si>
+    <t>8537811834</t>
+  </si>
+  <si>
+    <t>(925) 842-0520</t>
+  </si>
+  <si>
+    <t>8395968609</t>
+  </si>
+  <si>
+    <t>060-6536-909</t>
+  </si>
+  <si>
+    <t>(678) 452 9550</t>
+  </si>
+  <si>
+    <t>0478-497-739</t>
+  </si>
+  <si>
+    <t>(06) 49904823</t>
+  </si>
+  <si>
+    <t>(06) 81106670</t>
+  </si>
+  <si>
+    <t>049-696-96-41</t>
+  </si>
+  <si>
+    <t>06-24-96-66-71</t>
+  </si>
+  <si>
+    <t>(776)-958-2655</t>
+  </si>
+  <si>
+    <t>(552)-225-2731</t>
+  </si>
+  <si>
+    <t>043-006-41-71</t>
+  </si>
+  <si>
+    <t>91761550</t>
+  </si>
+  <si>
+    <t>(819)-227-3688</t>
+  </si>
+  <si>
+    <t>52795112</t>
+  </si>
+  <si>
+    <t>0423-404-504</t>
+  </si>
+  <si>
+    <t>07266 045750</t>
+  </si>
+  <si>
+    <t>680-291-720</t>
+  </si>
+  <si>
+    <t>081-756-2656</t>
+  </si>
+  <si>
+    <t>0982-390-9167</t>
+  </si>
+  <si>
+    <t>(06) 13072608</t>
+  </si>
+  <si>
+    <t>077 955 86 51</t>
+  </si>
+  <si>
+    <t>9994291066</t>
+  </si>
+  <si>
+    <t>07114 089734</t>
+  </si>
+  <si>
+    <t>8528139673</t>
+  </si>
+  <si>
+    <t>(099) U68-0665</t>
+  </si>
+  <si>
+    <t>041-484-68-56</t>
+  </si>
+  <si>
+    <t>042-985-60-60</t>
+  </si>
+  <si>
+    <t>(643) 903 6250</t>
+  </si>
+  <si>
+    <t>0980-594-7750</t>
+  </si>
+  <si>
+    <t>676-868-406</t>
+  </si>
+  <si>
+    <t>0176-7050954</t>
+  </si>
+  <si>
+    <t>0176-6748443</t>
+  </si>
+  <si>
+    <t>45818944</t>
+  </si>
+  <si>
+    <t>694-539-588</t>
+  </si>
+  <si>
+    <t>075 831 41 86</t>
+  </si>
+  <si>
+    <t>06-45-80-90-01</t>
+  </si>
+  <si>
+    <t>044-076-61-74</t>
+  </si>
+  <si>
+    <t>85855095</t>
+  </si>
+  <si>
+    <t>11311027</t>
+  </si>
+  <si>
+    <t>0178-2698989</t>
+  </si>
+  <si>
+    <t>07324 632499</t>
+  </si>
+  <si>
+    <t>{'name': 'SIN', 'value': '492152673'}</t>
+  </si>
+  <si>
+    <t>{'name': 'DNI', 'value': '42559281-A'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA776undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SVNR', 'value': '25 070576 K 145'}</t>
+  </si>
+  <si>
+    <t>{'name': 'CPR', 'value': '090697-7909'}</t>
   </si>
   <si>
     <t>{'name': '', 'value': None}</t>
   </si>
   <si>
-    <t>{'name': 'CPR', 'value': '310787-0080'}</t>
-  </si>
-  <si>
-    <t>{'name': 'NINO', 'value': 'TN 75 72 83 M'}</t>
-  </si>
-  <si>
-    <t>{'name': 'UIDAI', 'value': '241603859677'}</t>
-  </si>
-  <si>
-    <t>{'name': 'UIDAI', 'value': '427825518612'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SVNR', 'value': '19 1611100 F 748'}</t>
-  </si>
-  <si>
-    <t>{'name': 'TFN', 'value': '993053201'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SID', 'value': '763514316'}</t>
-  </si>
-  <si>
-    <t>{'name': 'PPS', 'value': '7680574T'}</t>
-  </si>
-  <si>
-    <t>{'name': 'NINO', 'value': 'WP 47 28 75 Q'}</t>
-  </si>
-  <si>
-    <t>{'name': 'BSN', 'value': '18419722'}</t>
-  </si>
-  <si>
-    <t>{'name': 'UIDAI', 'value': '761155894694'}</t>
-  </si>
-  <si>
-    <t>{'name': 'DNI', 'value': '20611439-J'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SSN', 'value': '724-16-4203'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SIN', 'value': '969776087'}</t>
-  </si>
-  <si>
-    <t>{'name': 'FN', 'value': '13115914868'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SID', 'value': '538017637'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA206undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SSN', 'value': '151-77-5249'}</t>
-  </si>
-  <si>
-    <t>{'name': 'AVS', 'value': '756.9615.6402.42'}</t>
-  </si>
-  <si>
-    <t>{'name': 'DNI', 'value': '73470085-D'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SVNR', 'value': '39 031295 H 703'}</t>
-  </si>
-  <si>
-    <t>{'name': 'UIDAI', 'value': '630484292179'}</t>
-  </si>
-  <si>
-    <t>{'name': 'AVS', 'value': '756.4753.3416.17'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SSN', 'value': '630-86-9215'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA525undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA983undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'NSS', 'value': '20 70 05 3510 3'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA683undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SVNR', 'value': '54 120461 S 260'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA213undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA469undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'HETU', 'value': 'NaNNA453undefined'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SID', 'value': '610102738'}</t>
-  </si>
-  <si>
-    <t>{'name': 'CPR', 'value': '040765-5063'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SSN', 'value': '660-72-9001'}</t>
-  </si>
-  <si>
-    <t>{'name': 'TFN', 'value': '215879881'}</t>
-  </si>
-  <si>
-    <t>{'name': 'BSN', 'value': '03993877'}</t>
-  </si>
-  <si>
-    <t>{'name': 'CPR', 'value': '070256-9142'}</t>
-  </si>
-  <si>
-    <t>{'name': 'SSN', 'value': '649-18-4694'}</t>
-  </si>
-  <si>
-    <t>{'name': 'NSS', 'value': '37 33 88 5255 6'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/48.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/48.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/48.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/31.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/31.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/31.jpg'}</t>
+    <t>{'name': 'SSN', 'value': '629-59-5274'}</t>
+  </si>
+  <si>
+    <t>{'name': 'UIDAI', 'value': '573687859343'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SSN', 'value': '757-30-9175'}</t>
+  </si>
+  <si>
+    <t>{'name': 'UIDAI', 'value': '196841241622'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SID', 'value': '762413711'}</t>
+  </si>
+  <si>
+    <t>{'name': 'NSS', 'value': '11 90 54 0128 8'}</t>
+  </si>
+  <si>
+    <t>{'name': 'TFN', 'value': '143337360'}</t>
+  </si>
+  <si>
+    <t>{'name': 'BSN', 'value': '07167379'}</t>
+  </si>
+  <si>
+    <t>{'name': 'BSN', 'value': '55286377'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA218undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'INSEE', 'value': '2730922832481 17'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA091undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'FN', 'value': '08069828508'}</t>
+  </si>
+  <si>
+    <t>{'name': 'CPR', 'value': '161263-5467'}</t>
+  </si>
+  <si>
+    <t>{'name': 'TFN', 'value': '730087021'}</t>
+  </si>
+  <si>
+    <t>{'name': 'NINO', 'value': 'BC 94 50 33 C'}</t>
+  </si>
+  <si>
+    <t>{'name': 'DNI', 'value': '73883187-H'}</t>
+  </si>
+  <si>
+    <t>{'name': 'PPS', 'value': '5265390T'}</t>
+  </si>
+  <si>
+    <t>{'name': 'BSN', 'value': '47855376'}</t>
+  </si>
+  <si>
+    <t>{'name': 'AVS', 'value': '756.3070.5700.42'}</t>
+  </si>
+  <si>
+    <t>{'name': 'UIDAI', 'value': '139535886347'}</t>
+  </si>
+  <si>
+    <t>{'name': 'NINO', 'value': 'CE 08 31 77 N'}</t>
+  </si>
+  <si>
+    <t>{'name': 'UIDAI', 'value': '413225338176'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA731undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA497undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'NSS', 'value': '69 65 20 0157 0'}</t>
+  </si>
+  <si>
+    <t>{'name': 'DNI', 'value': '34526495-W'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SVNR', 'value': '70 300892 S 188'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SVNR', 'value': '23 280750 P 528'}</t>
+  </si>
+  <si>
+    <t>{'name': 'FN', 'value': '19025416336'}</t>
+  </si>
+  <si>
+    <t>{'name': 'DNI', 'value': '50919749-Q'}</t>
+  </si>
+  <si>
+    <t>{'name': 'AVS', 'value': '756.1674.0841.81'}</t>
+  </si>
+  <si>
+    <t>{'name': 'INSEE', 'value': '2920433284357 44'}</t>
+  </si>
+  <si>
+    <t>{'name': 'HETU', 'value': 'NaNNA365undefined'}</t>
+  </si>
+  <si>
+    <t>{'name': 'CPR', 'value': '160279-9748'}</t>
+  </si>
+  <si>
+    <t>{'name': 'CPR', 'value': '211291-5194'}</t>
+  </si>
+  <si>
+    <t>{'name': 'SVNR', 'value': '21 191262 T 875'}</t>
+  </si>
+  <si>
+    <t>{'name': 'NINO', 'value': 'KX 88 31 75 X'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/6.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/6.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/6.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/49.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/49.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/49.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/68.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/68.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/68.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/91.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/91.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/91.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/18.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/18.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/18.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/80.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/80.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/80.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/73.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/73.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/73.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/72.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/72.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/72.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/92.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/92.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/92.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/38.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/38.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/38.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/74.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/74.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/74.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/34.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/34.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/34.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/26.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/26.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/26.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/86.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/86.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/86.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/7.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/7.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/7.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/37.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/37.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/37.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/83.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/83.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/83.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/32.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/32.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/32.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/19.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/19.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/19.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/41.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/41.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/41.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/23.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/23.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/23.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/97.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/97.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/97.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/8.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/8.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/8.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/52.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/52.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/52.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/42.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/42.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/42.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/82.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/82.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/82.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/72.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/72.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/72.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/52.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/52.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/52.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/87.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/87.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/87.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/96.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/96.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/96.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/0.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/0.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/0.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/37.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/37.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/37.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/16.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/16.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/16.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/70.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/70.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/70.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/81.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/81.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/81.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/66.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/66.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/66.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/2.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/2.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/2.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/7.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/7.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/7.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/55.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/55.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/55.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/31.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/31.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/31.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/58.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/58.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/58.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/69.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/69.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/69.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/56.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/56.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/56.jpg'}</t>
   </si>
   <si>
     <t>{'large': 'https://randomuser.me/api/portraits/women/96.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/96.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/96.jpg'}</t>
   </si>
   <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/86.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/86.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/86.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/50.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/50.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/50.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/16.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/16.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/16.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/21.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/21.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/21.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/68.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/68.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/68.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/40.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/40.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/40.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/78.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/78.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/78.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/10.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/10.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/10.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/9.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/9.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/9.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/3.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/3.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/3.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/56.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/56.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/56.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/10.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/10.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/10.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/76.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/76.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/76.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/25.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/25.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/25.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/58.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/58.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/58.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/25.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/25.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/25.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/27.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/27.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/27.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/71.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/71.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/71.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/53.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/53.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/53.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/5.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/5.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/5.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/96.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/96.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/96.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/61.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/61.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/61.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/1.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/1.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/1.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/94.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/94.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/94.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/35.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/35.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/35.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/42.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/42.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/42.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/33.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/33.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/33.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/67.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/67.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/67.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/54.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/54.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/54.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/64.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/64.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/64.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/82.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/82.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/82.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/59.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/59.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/59.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/73.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/73.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/73.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/76.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/76.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/76.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/91.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/91.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/91.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/0.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/0.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/0.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/37.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/37.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/37.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/88.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/88.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/88.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/66.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/66.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/66.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/women/45.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/45.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/45.jpg'}</t>
-  </si>
-  <si>
-    <t>{'large': 'https://randomuser.me/api/portraits/men/90.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/90.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/90.jpg'}</t>
+    <t>{'large': 'https://randomuser.me/api/portraits/women/57.jpg', 'medium': 'https://randomuser.me/api/portraits/med/women/57.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/women/57.jpg'}</t>
+  </si>
+  <si>
+    <t>{'large': 'https://randomuser.me/api/portraits/men/24.jpg', 'medium': 'https://randomuser.me/api/portraits/med/men/24.jpg', 'thumbnail': 'https://randomuser.me/api/portraits/thumb/men/24.jpg'}</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
   <si>
     <t>UA</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>GB</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>IE</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>CH</t>
-  </si>
-  <si>
-    <t>MX</t>
   </si>
 </sst>
 </file>
@@ -2869,16 +2878,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2.65</v>
+        <v>3.13</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2886,16 +2895,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.15</v>
+        <v>2.26</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2903,13 +2912,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.61</v>
+        <v>0.61</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2923,13 +2932,13 @@
         <v>9.77</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2943,10 +2952,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2954,13 +2963,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1.73</v>
+        <v>2.73</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2974,13 +2983,13 @@
         <v>6.14</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>87</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2991,13 +3000,13 @@
         <v>1.94</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>87</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3005,16 +3014,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>10.86</v>
+        <v>10.41</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>3.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3022,16 +3031,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17.53</v>
+        <v>17.48</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3045,10 +3054,10 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3062,10 +3071,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3073,16 +3082,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3090,16 +3099,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>17.01</v>
+        <v>18.01</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3107,13 +3116,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>19.43</v>
+        <v>20.43</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -3124,16 +3133,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>24.58</v>
+        <v>24.84</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3141,16 +3150,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>10.26</v>
+        <v>10.82</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3161,13 +3170,13 @@
         <v>6.05</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>75</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3175,16 +3184,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3192,16 +3201,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>2.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3209,13 +3218,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3226,7 +3235,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>8.68</v>
+        <v>8.81</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -3235,7 +3244,7 @@
         <v>65</v>
       </c>
       <c r="E23">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3243,13 +3252,13 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.43</v>
+        <v>-1.57</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3260,7 +3269,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3269,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>6.57</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3277,16 +3286,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.77</v>
+        <v>1.53</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>3.83</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3294,16 +3303,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-1.1</v>
+        <v>-1.19</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3314,13 +3323,13 @@
         <v>0.89</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3328,16 +3337,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>14.99</v>
+        <v>17.99</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3345,16 +3354,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>4.69</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3362,16 +3371,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>7.01</v>
+        <v>6.01</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31">
-        <v>2.93</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3389,932 +3398,932 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4403,1785 +4412,1785 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
-        <v>306</v>
-      </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L3" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L4" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L5" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L8" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L9" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="L11" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K12" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="L12" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I13" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J13" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="K13" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L13" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K14" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L14" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L15" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I16" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L16" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K17" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L17" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K18" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L18" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J19" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K19" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L19" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J20" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="K20" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L20" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K21" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="L21" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J22" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="K22" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="L22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J23" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K23" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L23" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H24" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I24" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J24" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="K24" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L24" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J25" t="s">
         <v>724</v>
       </c>
       <c r="K25" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="L25" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J26" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="K26" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="L26" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K27" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="L27" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J28" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K28" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L28" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G29" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J29" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K29" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="L29" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K30" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="L30" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K31" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L31" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J32" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K32" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="L32" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F33" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K33" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="L33" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I34" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K34" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="L34" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F35" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G35" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I35" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J35" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K35" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L35" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G36" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K36" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L36" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G37" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H37" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J37" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K37" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L37" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I38" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K38" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L38" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G39" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I39" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J39" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="K39" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L39" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F40" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H40" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I40" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J40" t="s">
         <v>736</v>
       </c>
       <c r="K40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L40" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F41" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I41" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J41" t="s">
         <v>737</v>
       </c>
       <c r="K41" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L41" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H42" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J42" t="s">
         <v>738</v>
       </c>
       <c r="K42" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L42" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G43" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H43" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J43" t="s">
         <v>739</v>
       </c>
       <c r="K43" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L43" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F44" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G44" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H44" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I44" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J44" t="s">
         <v>740</v>
       </c>
       <c r="K44" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L44" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E45" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G45" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J45" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="K45" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L45" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D46" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H46" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I46" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J46" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K46" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L46" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E47" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F47" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H47" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J47" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K47" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L47" t="s">
         <v>796</v>
@@ -6189,151 +6198,151 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E48" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F48" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G48" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I48" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J48" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K48" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L48" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F49" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G49" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I49" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J49" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K49" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L49" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F50" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G50" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H50" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I50" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J50" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K50" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="L50" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F51" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G51" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H51" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I51" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J51" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K51" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="L51" t="s">
         <v>809</v>
